--- a/export.xlsx
+++ b/export.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fj428\Documents\GitHub\metaheuristicas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAD569A-C2F7-4CA5-A4A4-1D321157F806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA55172-55DE-41A0-99DA-EA76F6AF9409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="z=2" sheetId="1" r:id="rId1"/>
-    <sheet name="z=0.75" sheetId="6" r:id="rId2"/>
-    <sheet name="z=0.5" sheetId="3" r:id="rId3"/>
-    <sheet name="z=0.9" sheetId="5" r:id="rId4"/>
-    <sheet name="compilado" sheetId="4" r:id="rId5"/>
+    <sheet name="z=0.25" sheetId="7" r:id="rId1"/>
+    <sheet name="z=2" sheetId="1" r:id="rId2"/>
+    <sheet name="z=0.75" sheetId="6" r:id="rId3"/>
+    <sheet name="z=0.5" sheetId="3" r:id="rId4"/>
+    <sheet name="z=0.9" sheetId="5" r:id="rId5"/>
+    <sheet name="compilado" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="20">
   <si>
     <t>z=2</t>
   </si>
@@ -86,6 +87,15 @@
   </si>
   <si>
     <t>Média</t>
+  </si>
+  <si>
+    <t>z=0.25</t>
+  </si>
+  <si>
+    <t>Comparativo - z=0.25</t>
+  </si>
+  <si>
+    <t>menor</t>
   </si>
 </sst>
 </file>
@@ -213,7 +223,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -255,6 +265,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -262,10 +280,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -273,18 +291,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="6">
     <dxf>
       <font>
         <b/>
@@ -308,11 +328,12 @@
         <b/>
         <i val="0"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -653,12 +674,3434 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9EA1B24-7E1B-4FA5-B8F1-FC728025CEC7}">
+  <dimension ref="A1:AS30"/>
+  <sheetViews>
+    <sheetView topLeftCell="EH1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="EY12" sqref="EI11:EY12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="21" max="23" width="9" style="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="C1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="N1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="Y1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="20">
+        <v>1</v>
+      </c>
+      <c r="D2" s="20">
+        <v>2</v>
+      </c>
+      <c r="E2" s="20">
+        <v>3</v>
+      </c>
+      <c r="F2" s="20">
+        <v>4</v>
+      </c>
+      <c r="G2" s="20">
+        <v>5</v>
+      </c>
+      <c r="H2" s="20">
+        <v>6</v>
+      </c>
+      <c r="I2" s="20">
+        <v>7</v>
+      </c>
+      <c r="J2" s="20">
+        <v>8</v>
+      </c>
+      <c r="K2" s="20">
+        <v>9</v>
+      </c>
+      <c r="L2" s="20">
+        <v>10</v>
+      </c>
+      <c r="N2" s="20">
+        <v>1</v>
+      </c>
+      <c r="O2" s="20">
+        <v>2</v>
+      </c>
+      <c r="P2" s="20">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="20">
+        <v>4</v>
+      </c>
+      <c r="R2" s="20">
+        <v>5</v>
+      </c>
+      <c r="S2" s="20">
+        <v>6</v>
+      </c>
+      <c r="T2" s="20">
+        <v>7</v>
+      </c>
+      <c r="U2" s="22">
+        <v>8</v>
+      </c>
+      <c r="V2" s="22">
+        <v>9</v>
+      </c>
+      <c r="W2" s="22">
+        <v>10</v>
+      </c>
+      <c r="Y2" s="20">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="20">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="20">
+        <v>3</v>
+      </c>
+      <c r="AB2" s="20">
+        <v>4</v>
+      </c>
+      <c r="AC2" s="20">
+        <v>5</v>
+      </c>
+      <c r="AD2" s="20">
+        <v>6</v>
+      </c>
+      <c r="AE2" s="20">
+        <v>7</v>
+      </c>
+      <c r="AF2" s="20">
+        <v>8</v>
+      </c>
+      <c r="AG2" s="20">
+        <v>9</v>
+      </c>
+      <c r="AH2" s="20">
+        <v>10</v>
+      </c>
+      <c r="AI2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM2" s="26" t="str">
+        <f>"Comparativo - "&amp;A2</f>
+        <v>Comparativo - z=0.25</v>
+      </c>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="26"/>
+    </row>
+    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A3" s="24">
+        <v>10</v>
+      </c>
+      <c r="B3" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <v>2152</v>
+      </c>
+      <c r="D3">
+        <v>1334</v>
+      </c>
+      <c r="E3">
+        <v>1731</v>
+      </c>
+      <c r="F3">
+        <v>2411</v>
+      </c>
+      <c r="G3">
+        <v>1335</v>
+      </c>
+      <c r="H3">
+        <v>1640</v>
+      </c>
+      <c r="I3">
+        <v>2674</v>
+      </c>
+      <c r="J3">
+        <v>1900</v>
+      </c>
+      <c r="K3">
+        <v>1846</v>
+      </c>
+      <c r="L3">
+        <v>1934</v>
+      </c>
+      <c r="N3" s="12">
+        <v>2009</v>
+      </c>
+      <c r="O3" s="12">
+        <v>1125</v>
+      </c>
+      <c r="P3" s="12">
+        <v>1731</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>2392</v>
+      </c>
+      <c r="R3" s="12">
+        <v>1220</v>
+      </c>
+      <c r="S3" s="12">
+        <v>1623</v>
+      </c>
+      <c r="T3" s="12">
+        <v>2269</v>
+      </c>
+      <c r="U3" s="23">
+        <v>1774</v>
+      </c>
+      <c r="V3" s="23">
+        <v>1792</v>
+      </c>
+      <c r="W3" s="23">
+        <v>1934</v>
+      </c>
+      <c r="Y3" s="13">
+        <f>(C3-N3)/N3</f>
+        <v>7.1179691388750618E-2</v>
+      </c>
+      <c r="Z3" s="13">
+        <f t="shared" ref="Z3:AH18" si="0">(D3-O3)/O3</f>
+        <v>0.18577777777777776</v>
+      </c>
+      <c r="AA3" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="13">
+        <f t="shared" si="0"/>
+        <v>7.94314381270903E-3</v>
+      </c>
+      <c r="AC3" s="13">
+        <f t="shared" si="0"/>
+        <v>9.4262295081967207E-2</v>
+      </c>
+      <c r="AD3" s="13">
+        <f t="shared" si="0"/>
+        <v>1.0474430067775724E-2</v>
+      </c>
+      <c r="AE3" s="13">
+        <f t="shared" si="0"/>
+        <v>0.17849272807404143</v>
+      </c>
+      <c r="AF3" s="13">
+        <f t="shared" si="0"/>
+        <v>7.1025930101465615E-2</v>
+      </c>
+      <c r="AG3" s="13">
+        <f t="shared" si="0"/>
+        <v>3.0133928571428572E-2</v>
+      </c>
+      <c r="AH3" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI3" s="21">
+        <f>AVERAGE(Y3:AH3)</f>
+        <v>6.4928992487591597E-2</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM3">
+        <v>10</v>
+      </c>
+      <c r="AN3">
+        <v>20</v>
+      </c>
+      <c r="AO3">
+        <v>50</v>
+      </c>
+      <c r="AP3">
+        <v>100</v>
+      </c>
+      <c r="AQ3">
+        <v>200</v>
+      </c>
+      <c r="AR3">
+        <v>500</v>
+      </c>
+      <c r="AS3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A4" s="24"/>
+      <c r="B4" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="C4">
+        <v>1057</v>
+      </c>
+      <c r="D4">
+        <v>732.99999999999989</v>
+      </c>
+      <c r="E4">
+        <v>991</v>
+      </c>
+      <c r="F4">
+        <v>1251</v>
+      </c>
+      <c r="G4">
+        <v>928.99999999999989</v>
+      </c>
+      <c r="H4">
+        <v>908</v>
+      </c>
+      <c r="I4">
+        <v>1914</v>
+      </c>
+      <c r="J4">
+        <v>1104</v>
+      </c>
+      <c r="K4">
+        <v>904</v>
+      </c>
+      <c r="L4">
+        <v>1284</v>
+      </c>
+      <c r="N4" s="12">
+        <v>1057</v>
+      </c>
+      <c r="O4" s="12">
+        <v>615</v>
+      </c>
+      <c r="P4" s="12">
+        <v>931</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>1251</v>
+      </c>
+      <c r="R4" s="12">
+        <v>661</v>
+      </c>
+      <c r="S4" s="12">
+        <v>908</v>
+      </c>
+      <c r="T4" s="12">
+        <v>1374</v>
+      </c>
+      <c r="U4" s="23">
+        <v>1104</v>
+      </c>
+      <c r="V4" s="23">
+        <v>876</v>
+      </c>
+      <c r="W4" s="23">
+        <v>1173</v>
+      </c>
+      <c r="Y4" s="13">
+        <f t="shared" ref="Y4:AH30" si="1">(C4-N4)/N4</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="13">
+        <f t="shared" si="0"/>
+        <v>0.19186991869918682</v>
+      </c>
+      <c r="AA4" s="13">
+        <f t="shared" si="0"/>
+        <v>6.4446831364124602E-2</v>
+      </c>
+      <c r="AB4" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="13">
+        <f t="shared" si="0"/>
+        <v>0.40544629349470485</v>
+      </c>
+      <c r="AD4" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="13">
+        <f t="shared" si="0"/>
+        <v>0.3930131004366812</v>
+      </c>
+      <c r="AF4" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="13">
+        <f t="shared" si="0"/>
+        <v>3.1963470319634701E-2</v>
+      </c>
+      <c r="AH4" s="13">
+        <f t="shared" si="0"/>
+        <v>9.4629156010230184E-2</v>
+      </c>
+      <c r="AI4" s="21">
+        <f t="shared" ref="AI4:AI30" si="2">AVERAGE(Y4:AH4)</f>
+        <v>0.11813687703245623</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A5" s="24"/>
+      <c r="B5" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="C5">
+        <v>841</v>
+      </c>
+      <c r="D5">
+        <v>733</v>
+      </c>
+      <c r="E5">
+        <v>793</v>
+      </c>
+      <c r="F5">
+        <v>814.99999999999989</v>
+      </c>
+      <c r="G5">
+        <v>521.00000000000011</v>
+      </c>
+      <c r="H5">
+        <v>755</v>
+      </c>
+      <c r="I5">
+        <v>1102</v>
+      </c>
+      <c r="J5">
+        <v>658</v>
+      </c>
+      <c r="K5">
+        <v>784</v>
+      </c>
+      <c r="L5">
+        <v>781</v>
+      </c>
+      <c r="N5" s="12">
+        <v>841</v>
+      </c>
+      <c r="O5" s="12">
+        <v>615</v>
+      </c>
+      <c r="P5" s="12">
+        <v>793</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>815</v>
+      </c>
+      <c r="R5" s="12">
+        <v>521</v>
+      </c>
+      <c r="S5" s="12">
+        <v>755</v>
+      </c>
+      <c r="T5" s="12">
+        <v>1102</v>
+      </c>
+      <c r="U5" s="23">
+        <v>610</v>
+      </c>
+      <c r="V5" s="23">
+        <v>582</v>
+      </c>
+      <c r="W5" s="23">
+        <v>711</v>
+      </c>
+      <c r="Y5" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="13">
+        <f t="shared" si="0"/>
+        <v>0.19186991869918699</v>
+      </c>
+      <c r="AA5" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="13">
+        <f t="shared" si="0"/>
+        <v>-1.3949305241916078E-16</v>
+      </c>
+      <c r="AC5" s="13">
+        <f t="shared" si="0"/>
+        <v>2.1820890157699813E-16</v>
+      </c>
+      <c r="AD5" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="13">
+        <f t="shared" si="0"/>
+        <v>7.8688524590163941E-2</v>
+      </c>
+      <c r="AG5" s="13">
+        <f t="shared" si="0"/>
+        <v>0.34707903780068727</v>
+      </c>
+      <c r="AH5" s="13">
+        <f t="shared" si="0"/>
+        <v>9.8452883263009841E-2</v>
+      </c>
+      <c r="AI5" s="21">
+        <f t="shared" si="2"/>
+        <v>7.1609036435304807E-2</v>
+      </c>
+      <c r="AL5" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="AM5" s="4">
+        <f>AI3</f>
+        <v>6.4928992487591597E-2</v>
+      </c>
+      <c r="AN5" s="4">
+        <f>AI7</f>
+        <v>2.1940293264122002E-2</v>
+      </c>
+      <c r="AO5" s="4">
+        <f>AI11</f>
+        <v>2.0961760329960003E-2</v>
+      </c>
+      <c r="AP5" s="4">
+        <f>AI15</f>
+        <v>3.1600184186590897E-3</v>
+      </c>
+      <c r="AQ5" s="4">
+        <f>AI19</f>
+        <v>6.4112980250270717E-3</v>
+      </c>
+      <c r="AR5" s="4">
+        <f>AI23</f>
+        <v>2.4527572816153208E-3</v>
+      </c>
+      <c r="AS5" s="4">
+        <f>AI27</f>
+        <v>4.2271978422943213E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A6" s="24"/>
+      <c r="B6" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="C6">
+        <v>841</v>
+      </c>
+      <c r="D6">
+        <v>733</v>
+      </c>
+      <c r="E6">
+        <v>793</v>
+      </c>
+      <c r="F6">
+        <v>815</v>
+      </c>
+      <c r="G6">
+        <v>521</v>
+      </c>
+      <c r="H6">
+        <v>770</v>
+      </c>
+      <c r="I6">
+        <v>1175</v>
+      </c>
+      <c r="J6">
+        <v>606</v>
+      </c>
+      <c r="K6">
+        <v>666</v>
+      </c>
+      <c r="L6">
+        <v>671</v>
+      </c>
+      <c r="N6" s="12">
+        <v>818</v>
+      </c>
+      <c r="O6" s="12">
+        <v>615</v>
+      </c>
+      <c r="P6" s="12">
+        <v>793</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>815</v>
+      </c>
+      <c r="R6" s="12">
+        <v>521</v>
+      </c>
+      <c r="S6" s="12">
+        <v>755</v>
+      </c>
+      <c r="T6" s="12">
+        <v>1083</v>
+      </c>
+      <c r="U6" s="23">
+        <v>540</v>
+      </c>
+      <c r="V6" s="23">
+        <v>554</v>
+      </c>
+      <c r="W6" s="23">
+        <v>671</v>
+      </c>
+      <c r="Y6" s="13">
+        <f t="shared" si="1"/>
+        <v>2.8117359413202935E-2</v>
+      </c>
+      <c r="Z6" s="13">
+        <f t="shared" si="0"/>
+        <v>0.19186991869918699</v>
+      </c>
+      <c r="AA6" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="13">
+        <f t="shared" si="0"/>
+        <v>1.9867549668874173E-2</v>
+      </c>
+      <c r="AE6" s="13">
+        <f t="shared" si="0"/>
+        <v>8.4949215143120954E-2</v>
+      </c>
+      <c r="AF6" s="13">
+        <f t="shared" si="0"/>
+        <v>0.12222222222222222</v>
+      </c>
+      <c r="AG6" s="13">
+        <f t="shared" si="0"/>
+        <v>0.20216606498194944</v>
+      </c>
+      <c r="AH6" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI6" s="21">
+        <f t="shared" si="2"/>
+        <v>6.4919233012855668E-2</v>
+      </c>
+      <c r="AL6" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="AM6" s="4">
+        <f t="shared" ref="AM6:AM8" si="3">AI4</f>
+        <v>0.11813687703245623</v>
+      </c>
+      <c r="AN6" s="4">
+        <f t="shared" ref="AN6:AN8" si="4">AI8</f>
+        <v>4.1353825736237373E-2</v>
+      </c>
+      <c r="AO6" s="4">
+        <f t="shared" ref="AO6:AO8" si="5">AI12</f>
+        <v>1.9984354203012342E-2</v>
+      </c>
+      <c r="AP6" s="4">
+        <f t="shared" ref="AP6:AP8" si="6">AI16</f>
+        <v>1.1760148602085398E-3</v>
+      </c>
+      <c r="AQ6" s="4">
+        <f t="shared" ref="AQ6:AQ8" si="7">AI20</f>
+        <v>2.2066519417234601E-3</v>
+      </c>
+      <c r="AR6" s="4">
+        <f t="shared" ref="AR6:AR8" si="8">AI24</f>
+        <v>1.9850003296093691E-3</v>
+      </c>
+      <c r="AS6" s="4">
+        <f t="shared" ref="AS6:AS8" si="9">AI28</f>
+        <v>1.880784831631601E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A7" s="24">
+        <v>20</v>
+      </c>
+      <c r="B7" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="C7">
+        <v>4596</v>
+      </c>
+      <c r="D7">
+        <v>9141</v>
+      </c>
+      <c r="E7">
+        <v>6331</v>
+      </c>
+      <c r="F7">
+        <v>9504</v>
+      </c>
+      <c r="G7">
+        <v>4340</v>
+      </c>
+      <c r="H7">
+        <v>6752</v>
+      </c>
+      <c r="I7">
+        <v>11510</v>
+      </c>
+      <c r="J7">
+        <v>4203</v>
+      </c>
+      <c r="K7">
+        <v>3566</v>
+      </c>
+      <c r="L7">
+        <v>5919</v>
+      </c>
+      <c r="N7" s="12">
+        <v>4431</v>
+      </c>
+      <c r="O7" s="12">
+        <v>8567</v>
+      </c>
+      <c r="P7" s="12">
+        <v>6331</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>9478</v>
+      </c>
+      <c r="R7" s="12">
+        <v>4340</v>
+      </c>
+      <c r="S7" s="12">
+        <v>6766</v>
+      </c>
+      <c r="T7" s="12">
+        <v>11101</v>
+      </c>
+      <c r="U7" s="23">
+        <v>4203</v>
+      </c>
+      <c r="V7" s="23">
+        <v>3530</v>
+      </c>
+      <c r="W7" s="23">
+        <v>5545</v>
+      </c>
+      <c r="Y7" s="13">
+        <f t="shared" si="1"/>
+        <v>3.7237643872714964E-2</v>
+      </c>
+      <c r="Z7" s="13">
+        <f t="shared" si="0"/>
+        <v>6.700128399673165E-2</v>
+      </c>
+      <c r="AA7" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="13">
+        <f t="shared" si="0"/>
+        <v>2.7431947668284449E-3</v>
+      </c>
+      <c r="AC7" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="13">
+        <f t="shared" si="0"/>
+        <v>-2.069169376293231E-3</v>
+      </c>
+      <c r="AE7" s="13">
+        <f t="shared" si="0"/>
+        <v>3.6843527610125215E-2</v>
+      </c>
+      <c r="AF7" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG7" s="13">
+        <f t="shared" si="0"/>
+        <v>1.0198300283286119E-2</v>
+      </c>
+      <c r="AH7" s="13">
+        <f t="shared" si="0"/>
+        <v>6.7448151487826874E-2</v>
+      </c>
+      <c r="AI7" s="21">
+        <f t="shared" si="2"/>
+        <v>2.1940293264122002E-2</v>
+      </c>
+      <c r="AL7" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="AM7" s="4">
+        <f t="shared" si="3"/>
+        <v>7.1609036435304807E-2</v>
+      </c>
+      <c r="AN7" s="4">
+        <f t="shared" si="4"/>
+        <v>1.8257115197187215E-2</v>
+      </c>
+      <c r="AO7" s="4">
+        <f t="shared" si="5"/>
+        <v>2.034753475844165E-2</v>
+      </c>
+      <c r="AP7" s="4">
+        <f t="shared" si="6"/>
+        <v>2.0689924471481019E-2</v>
+      </c>
+      <c r="AQ7" s="4">
+        <f t="shared" si="7"/>
+        <v>2.9106303520440656E-2</v>
+      </c>
+      <c r="AR7" s="4">
+        <f t="shared" si="8"/>
+        <v>3.3947842870143623E-2</v>
+      </c>
+      <c r="AS7" s="4">
+        <f t="shared" si="9"/>
+        <v>3.1351865383261138E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A8" s="24"/>
+      <c r="B8" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="C8">
+        <v>3106</v>
+      </c>
+      <c r="D8">
+        <v>5570</v>
+      </c>
+      <c r="E8">
+        <v>3842</v>
+      </c>
+      <c r="F8">
+        <v>5350</v>
+      </c>
+      <c r="G8">
+        <v>2575</v>
+      </c>
+      <c r="H8">
+        <v>3631</v>
+      </c>
+      <c r="I8">
+        <v>6298</v>
+      </c>
+      <c r="J8">
+        <v>2346</v>
+      </c>
+      <c r="K8">
+        <v>2097</v>
+      </c>
+      <c r="L8">
+        <v>3632</v>
+      </c>
+      <c r="N8" s="12">
+        <v>3066</v>
+      </c>
+      <c r="O8" s="12">
+        <v>4897</v>
+      </c>
+      <c r="P8" s="12">
+        <v>3883</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>5122</v>
+      </c>
+      <c r="R8" s="12">
+        <v>2571</v>
+      </c>
+      <c r="S8" s="12">
+        <v>3601</v>
+      </c>
+      <c r="T8" s="12">
+        <v>6357</v>
+      </c>
+      <c r="U8" s="23">
+        <v>2151</v>
+      </c>
+      <c r="V8" s="23">
+        <v>2097</v>
+      </c>
+      <c r="W8" s="23">
+        <v>3192</v>
+      </c>
+      <c r="Y8" s="13">
+        <f t="shared" si="1"/>
+        <v>1.3046314416177429E-2</v>
+      </c>
+      <c r="Z8" s="13">
+        <f t="shared" si="0"/>
+        <v>0.13743108025321626</v>
+      </c>
+      <c r="AA8" s="13">
+        <f t="shared" si="0"/>
+        <v>-1.0558846252897245E-2</v>
+      </c>
+      <c r="AB8" s="13">
+        <f>(F8-Q8)/Q8</f>
+        <v>4.4513861772745023E-2</v>
+      </c>
+      <c r="AC8" s="13">
+        <f t="shared" si="0"/>
+        <v>1.5558148580318942E-3</v>
+      </c>
+      <c r="AD8" s="13">
+        <f t="shared" si="0"/>
+        <v>8.3310191613440703E-3</v>
+      </c>
+      <c r="AE8" s="13">
+        <f t="shared" si="0"/>
+        <v>-9.2811074406166424E-3</v>
+      </c>
+      <c r="AF8" s="13">
+        <f t="shared" si="0"/>
+        <v>9.0655509065550907E-2</v>
+      </c>
+      <c r="AG8" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH8" s="13">
+        <f t="shared" si="0"/>
+        <v>0.13784461152882205</v>
+      </c>
+      <c r="AI8" s="21">
+        <f t="shared" si="2"/>
+        <v>4.1353825736237373E-2</v>
+      </c>
+      <c r="AL8" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="AM8" s="4">
+        <f t="shared" si="3"/>
+        <v>6.4919233012855668E-2</v>
+      </c>
+      <c r="AN8" s="4">
+        <f t="shared" si="4"/>
+        <v>4.0546390161069625E-2</v>
+      </c>
+      <c r="AO8" s="4">
+        <f t="shared" si="5"/>
+        <v>4.935779947407002E-2</v>
+      </c>
+      <c r="AP8" s="4">
+        <f t="shared" si="6"/>
+        <v>5.6466409779185031E-2</v>
+      </c>
+      <c r="AQ8" s="4">
+        <f t="shared" si="7"/>
+        <v>5.0827628715631679E-2</v>
+      </c>
+      <c r="AR8" s="4">
+        <f t="shared" si="8"/>
+        <v>4.7707183527753917E-2</v>
+      </c>
+      <c r="AS8" s="4">
+        <f t="shared" si="9"/>
+        <v>5.029012597681555E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A9" s="24"/>
+      <c r="B9" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="C9">
+        <v>3121</v>
+      </c>
+      <c r="D9">
+        <v>3375</v>
+      </c>
+      <c r="E9">
+        <v>3643</v>
+      </c>
+      <c r="F9">
+        <v>3336</v>
+      </c>
+      <c r="G9">
+        <v>2197</v>
+      </c>
+      <c r="H9">
+        <v>3145</v>
+      </c>
+      <c r="I9">
+        <v>4175</v>
+      </c>
+      <c r="J9">
+        <v>1668</v>
+      </c>
+      <c r="K9">
+        <v>2058</v>
+      </c>
+      <c r="L9">
+        <v>2116</v>
+      </c>
+      <c r="N9" s="12">
+        <v>2986</v>
+      </c>
+      <c r="O9" s="12">
+        <v>3260</v>
+      </c>
+      <c r="P9" s="12">
+        <v>3600</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>3336</v>
+      </c>
+      <c r="R9" s="12">
+        <v>2206</v>
+      </c>
+      <c r="S9" s="12">
+        <v>3016</v>
+      </c>
+      <c r="T9" s="12">
+        <v>4175</v>
+      </c>
+      <c r="U9" s="23">
+        <v>1638</v>
+      </c>
+      <c r="V9" s="23">
+        <v>1992</v>
+      </c>
+      <c r="W9" s="23">
+        <v>2116</v>
+      </c>
+      <c r="Y9" s="13">
+        <f t="shared" si="1"/>
+        <v>4.521098459477562E-2</v>
+      </c>
+      <c r="Z9" s="13">
+        <f t="shared" si="0"/>
+        <v>3.5276073619631899E-2</v>
+      </c>
+      <c r="AA9" s="13">
+        <f t="shared" si="0"/>
+        <v>1.1944444444444445E-2</v>
+      </c>
+      <c r="AB9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="13">
+        <f t="shared" si="0"/>
+        <v>-4.0797824116047144E-3</v>
+      </c>
+      <c r="AD9" s="13">
+        <f t="shared" si="0"/>
+        <v>4.2771883289124665E-2</v>
+      </c>
+      <c r="AE9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="13">
+        <f t="shared" si="0"/>
+        <v>1.8315018315018316E-2</v>
+      </c>
+      <c r="AG9" s="13">
+        <f t="shared" si="0"/>
+        <v>3.313253012048193E-2</v>
+      </c>
+      <c r="AH9" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="21">
+        <f t="shared" si="2"/>
+        <v>1.8257115197187215E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A10" s="24"/>
+      <c r="B10" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="C10">
+        <v>3121</v>
+      </c>
+      <c r="D10">
+        <v>3138</v>
+      </c>
+      <c r="E10">
+        <v>3643</v>
+      </c>
+      <c r="F10">
+        <v>3249</v>
+      </c>
+      <c r="G10">
+        <v>2197</v>
+      </c>
+      <c r="H10">
+        <v>3145</v>
+      </c>
+      <c r="I10">
+        <v>4170</v>
+      </c>
+      <c r="J10">
+        <v>1668</v>
+      </c>
+      <c r="K10">
+        <v>2058</v>
+      </c>
+      <c r="L10">
+        <v>2129</v>
+      </c>
+      <c r="N10" s="12">
+        <v>2986</v>
+      </c>
+      <c r="O10" s="12">
+        <v>2980</v>
+      </c>
+      <c r="P10" s="12">
+        <v>3600</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>3040</v>
+      </c>
+      <c r="R10" s="12">
+        <v>2206</v>
+      </c>
+      <c r="S10" s="12">
+        <v>3016</v>
+      </c>
+      <c r="T10" s="12">
+        <v>3900</v>
+      </c>
+      <c r="U10" s="23">
+        <v>1638</v>
+      </c>
+      <c r="V10" s="23">
+        <v>1992</v>
+      </c>
+      <c r="W10" s="23">
+        <v>1995</v>
+      </c>
+      <c r="Y10" s="13">
+        <f t="shared" si="1"/>
+        <v>4.521098459477562E-2</v>
+      </c>
+      <c r="Z10" s="13">
+        <f t="shared" si="0"/>
+        <v>5.3020134228187916E-2</v>
+      </c>
+      <c r="AA10" s="13">
+        <f t="shared" si="0"/>
+        <v>1.1944444444444445E-2</v>
+      </c>
+      <c r="AB10" s="13">
+        <f t="shared" si="0"/>
+        <v>6.8750000000000006E-2</v>
+      </c>
+      <c r="AC10" s="13">
+        <f t="shared" si="0"/>
+        <v>-4.0797824116047144E-3</v>
+      </c>
+      <c r="AD10" s="13">
+        <f t="shared" si="0"/>
+        <v>4.2771883289124665E-2</v>
+      </c>
+      <c r="AE10" s="13">
+        <f t="shared" si="0"/>
+        <v>6.9230769230769235E-2</v>
+      </c>
+      <c r="AF10" s="13">
+        <f t="shared" si="0"/>
+        <v>1.8315018315018316E-2</v>
+      </c>
+      <c r="AG10" s="13">
+        <f t="shared" si="0"/>
+        <v>3.313253012048193E-2</v>
+      </c>
+      <c r="AH10" s="13">
+        <f t="shared" si="0"/>
+        <v>6.7167919799498751E-2</v>
+      </c>
+      <c r="AI10" s="21">
+        <f t="shared" si="2"/>
+        <v>4.0546390161069625E-2</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AP10" s="6">
+        <v>1.705792</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A11" s="24">
+        <v>50</v>
+      </c>
+      <c r="B11" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="C11">
+        <v>44833</v>
+      </c>
+      <c r="D11">
+        <v>33663</v>
+      </c>
+      <c r="E11">
+        <v>38196</v>
+      </c>
+      <c r="F11">
+        <v>30167</v>
+      </c>
+      <c r="G11">
+        <v>32604</v>
+      </c>
+      <c r="H11">
+        <v>39617</v>
+      </c>
+      <c r="I11">
+        <v>44617</v>
+      </c>
+      <c r="J11">
+        <v>46351</v>
+      </c>
+      <c r="K11">
+        <v>37686</v>
+      </c>
+      <c r="L11">
+        <v>36277</v>
+      </c>
+      <c r="N11" s="12">
+        <v>42363</v>
+      </c>
+      <c r="O11" s="12">
+        <v>33637</v>
+      </c>
+      <c r="P11" s="12">
+        <v>37641</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>30166</v>
+      </c>
+      <c r="R11" s="12">
+        <v>32604</v>
+      </c>
+      <c r="S11" s="12">
+        <v>36920</v>
+      </c>
+      <c r="T11" s="12">
+        <v>44277</v>
+      </c>
+      <c r="U11" s="23">
+        <v>46065</v>
+      </c>
+      <c r="V11" s="23">
+        <v>36397</v>
+      </c>
+      <c r="W11" s="23">
+        <v>35797</v>
+      </c>
+      <c r="Y11" s="13">
+        <f t="shared" si="1"/>
+        <v>5.8305596865188963E-2</v>
+      </c>
+      <c r="Z11" s="13">
+        <f t="shared" si="0"/>
+        <v>7.7295834943663232E-4</v>
+      </c>
+      <c r="AA11" s="13">
+        <f t="shared" si="0"/>
+        <v>1.4744560452697855E-2</v>
+      </c>
+      <c r="AB11" s="13">
+        <f t="shared" si="0"/>
+        <v>3.314990386527879E-5</v>
+      </c>
+      <c r="AC11" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="13">
+        <f t="shared" si="0"/>
+        <v>7.30498374864572E-2</v>
+      </c>
+      <c r="AE11" s="13">
+        <f t="shared" si="0"/>
+        <v>7.6789303701696142E-3</v>
+      </c>
+      <c r="AF11" s="13">
+        <f t="shared" si="0"/>
+        <v>6.2086182568110281E-3</v>
+      </c>
+      <c r="AG11" s="13">
+        <f t="shared" si="0"/>
+        <v>3.5415006731324007E-2</v>
+      </c>
+      <c r="AH11" s="13">
+        <f t="shared" si="0"/>
+        <v>1.3408944883649469E-2</v>
+      </c>
+      <c r="AI11" s="21">
+        <f t="shared" si="2"/>
+        <v>2.0961760329960003E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A12" s="24"/>
+      <c r="B12" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="C12">
+        <v>24868</v>
+      </c>
+      <c r="D12">
+        <v>19528</v>
+      </c>
+      <c r="E12">
+        <v>21573</v>
+      </c>
+      <c r="F12">
+        <v>17752</v>
+      </c>
+      <c r="G12">
+        <v>18930</v>
+      </c>
+      <c r="H12">
+        <v>23996</v>
+      </c>
+      <c r="I12">
+        <v>24011</v>
+      </c>
+      <c r="J12">
+        <v>25679</v>
+      </c>
+      <c r="K12">
+        <v>22171</v>
+      </c>
+      <c r="L12">
+        <v>19885</v>
+      </c>
+      <c r="N12" s="12">
+        <v>24868</v>
+      </c>
+      <c r="O12" s="12">
+        <v>19279</v>
+      </c>
+      <c r="P12" s="12">
+        <v>21353</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>17495</v>
+      </c>
+      <c r="R12" s="12">
+        <v>18441</v>
+      </c>
+      <c r="S12" s="12">
+        <v>21497</v>
+      </c>
+      <c r="T12" s="12">
+        <v>23883</v>
+      </c>
+      <c r="U12" s="23">
+        <v>25402</v>
+      </c>
+      <c r="V12" s="23">
+        <v>21929</v>
+      </c>
+      <c r="W12" s="23">
+        <v>20048</v>
+      </c>
+      <c r="Y12" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="13">
+        <f t="shared" si="0"/>
+        <v>1.2915607655998754E-2</v>
+      </c>
+      <c r="AA12" s="13">
+        <f t="shared" si="0"/>
+        <v>1.0303001920104903E-2</v>
+      </c>
+      <c r="AB12" s="13">
+        <f t="shared" si="0"/>
+        <v>1.4689911403258074E-2</v>
+      </c>
+      <c r="AC12" s="13">
+        <f t="shared" si="0"/>
+        <v>2.6517000162680982E-2</v>
+      </c>
+      <c r="AD12" s="13">
+        <f t="shared" si="0"/>
+        <v>0.1162487788993813</v>
+      </c>
+      <c r="AE12" s="13">
+        <f t="shared" si="0"/>
+        <v>5.3594607042666328E-3</v>
+      </c>
+      <c r="AF12" s="13">
+        <f t="shared" si="0"/>
+        <v>1.0904653176915203E-2</v>
+      </c>
+      <c r="AG12" s="13">
+        <f t="shared" si="0"/>
+        <v>1.1035614939121712E-2</v>
+      </c>
+      <c r="AH12" s="13">
+        <f t="shared" si="0"/>
+        <v>-8.1304868316041494E-3</v>
+      </c>
+      <c r="AI12" s="21">
+        <f t="shared" si="2"/>
+        <v>1.9984354203012342E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A13" s="24"/>
+      <c r="B13" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="C13">
+        <v>18425</v>
+      </c>
+      <c r="D13">
+        <v>14469</v>
+      </c>
+      <c r="E13">
+        <v>16787</v>
+      </c>
+      <c r="F13">
+        <v>14474</v>
+      </c>
+      <c r="G13">
+        <v>14726</v>
+      </c>
+      <c r="H13">
+        <v>14999</v>
+      </c>
+      <c r="I13">
+        <v>17659</v>
+      </c>
+      <c r="J13">
+        <v>22452</v>
+      </c>
+      <c r="K13">
+        <v>14413</v>
+      </c>
+      <c r="L13">
+        <v>14456</v>
+      </c>
+      <c r="N13" s="12">
+        <v>17990</v>
+      </c>
+      <c r="O13" s="12">
+        <v>14231</v>
+      </c>
+      <c r="P13" s="12">
+        <v>16497</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>14105</v>
+      </c>
+      <c r="R13" s="12">
+        <v>14650</v>
+      </c>
+      <c r="S13" s="12">
+        <v>14251</v>
+      </c>
+      <c r="T13" s="12">
+        <v>17715</v>
+      </c>
+      <c r="U13" s="23">
+        <v>21367</v>
+      </c>
+      <c r="V13" s="23">
+        <v>14298</v>
+      </c>
+      <c r="W13" s="23">
+        <v>14377</v>
+      </c>
+      <c r="Y13" s="13">
+        <f t="shared" si="1"/>
+        <v>2.4180100055586438E-2</v>
+      </c>
+      <c r="Z13" s="13">
+        <f t="shared" si="0"/>
+        <v>1.6724053123462864E-2</v>
+      </c>
+      <c r="AA13" s="13">
+        <f t="shared" si="0"/>
+        <v>1.7578953749166515E-2</v>
+      </c>
+      <c r="AB13" s="13">
+        <f t="shared" si="0"/>
+        <v>2.6160935838355194E-2</v>
+      </c>
+      <c r="AC13" s="13">
+        <f t="shared" si="0"/>
+        <v>5.1877133105802048E-3</v>
+      </c>
+      <c r="AD13" s="13">
+        <f t="shared" si="0"/>
+        <v>5.2487544733702901E-2</v>
+      </c>
+      <c r="AE13" s="13">
+        <f t="shared" si="0"/>
+        <v>-3.1611628563364379E-3</v>
+      </c>
+      <c r="AF13" s="13">
+        <f t="shared" si="0"/>
+        <v>5.0779239013431926E-2</v>
+      </c>
+      <c r="AG13" s="13">
+        <f t="shared" si="0"/>
+        <v>8.043082948664149E-3</v>
+      </c>
+      <c r="AH13" s="13">
+        <f t="shared" si="0"/>
+        <v>5.4948876678027406E-3</v>
+      </c>
+      <c r="AI13" s="21">
+        <f t="shared" si="2"/>
+        <v>2.034753475844165E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A14" s="24"/>
+      <c r="B14" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="C14">
+        <v>19193</v>
+      </c>
+      <c r="D14">
+        <v>14698</v>
+      </c>
+      <c r="E14">
+        <v>17352</v>
+      </c>
+      <c r="F14">
+        <v>14947</v>
+      </c>
+      <c r="G14">
+        <v>14726</v>
+      </c>
+      <c r="H14">
+        <v>14320</v>
+      </c>
+      <c r="I14">
+        <v>17771</v>
+      </c>
+      <c r="J14">
+        <v>22553</v>
+      </c>
+      <c r="K14">
+        <v>15833</v>
+      </c>
+      <c r="L14">
+        <v>15226</v>
+      </c>
+      <c r="N14" s="12">
+        <v>17990</v>
+      </c>
+      <c r="O14" s="12">
+        <v>14132</v>
+      </c>
+      <c r="P14" s="12">
+        <v>16497</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>14105</v>
+      </c>
+      <c r="R14" s="12">
+        <v>14650</v>
+      </c>
+      <c r="S14" s="12">
+        <v>14075</v>
+      </c>
+      <c r="T14" s="12">
+        <v>17715</v>
+      </c>
+      <c r="U14" s="23">
+        <v>21367</v>
+      </c>
+      <c r="V14" s="23">
+        <v>13952</v>
+      </c>
+      <c r="W14" s="23">
+        <v>14377</v>
+      </c>
+      <c r="Y14" s="13">
+        <f t="shared" si="1"/>
+        <v>6.687048360200111E-2</v>
+      </c>
+      <c r="Z14" s="13">
+        <f t="shared" si="0"/>
+        <v>4.0050948202660627E-2</v>
+      </c>
+      <c r="AA14" s="13">
+        <f t="shared" si="0"/>
+        <v>5.1827605019094378E-2</v>
+      </c>
+      <c r="AB14" s="13">
+        <f t="shared" si="0"/>
+        <v>5.969514356611131E-2</v>
+      </c>
+      <c r="AC14" s="13">
+        <f t="shared" si="0"/>
+        <v>5.1877133105802048E-3</v>
+      </c>
+      <c r="AD14" s="13">
+        <f t="shared" si="0"/>
+        <v>1.7406749555950268E-2</v>
+      </c>
+      <c r="AE14" s="13">
+        <f t="shared" si="0"/>
+        <v>3.1611628563364379E-3</v>
+      </c>
+      <c r="AF14" s="13">
+        <f t="shared" si="0"/>
+        <v>5.5506154350166141E-2</v>
+      </c>
+      <c r="AG14" s="13">
+        <f t="shared" si="0"/>
+        <v>0.13481938073394495</v>
+      </c>
+      <c r="AH14" s="13">
+        <f t="shared" si="0"/>
+        <v>5.905265354385477E-2</v>
+      </c>
+      <c r="AI14" s="21">
+        <f t="shared" si="2"/>
+        <v>4.935779947407002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A15" s="24">
+        <v>100</v>
+      </c>
+      <c r="B15" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="C15">
+        <v>156512</v>
+      </c>
+      <c r="D15">
+        <v>132469</v>
+      </c>
+      <c r="E15">
+        <v>137796</v>
+      </c>
+      <c r="F15">
+        <v>136749</v>
+      </c>
+      <c r="G15">
+        <v>134002</v>
+      </c>
+      <c r="H15">
+        <v>156552</v>
+      </c>
+      <c r="I15">
+        <v>141613</v>
+      </c>
+      <c r="J15">
+        <v>171715</v>
+      </c>
+      <c r="K15">
+        <v>125143</v>
+      </c>
+      <c r="L15">
+        <v>124401</v>
+      </c>
+      <c r="N15" s="12">
+        <v>156103</v>
+      </c>
+      <c r="O15" s="12">
+        <v>132605</v>
+      </c>
+      <c r="P15" s="12">
+        <v>137463</v>
+      </c>
+      <c r="Q15" s="12">
+        <v>137265</v>
+      </c>
+      <c r="R15" s="12">
+        <v>136761</v>
+      </c>
+      <c r="S15" s="12">
+        <v>151938</v>
+      </c>
+      <c r="T15" s="12">
+        <v>141613</v>
+      </c>
+      <c r="U15" s="23">
+        <v>168086</v>
+      </c>
+      <c r="V15" s="23">
+        <v>125153</v>
+      </c>
+      <c r="W15" s="23">
+        <v>124446</v>
+      </c>
+      <c r="Y15" s="13">
+        <f t="shared" si="1"/>
+        <v>2.6200649571116504E-3</v>
+      </c>
+      <c r="Z15" s="13">
+        <f t="shared" si="0"/>
+        <v>-1.0256023528524565E-3</v>
+      </c>
+      <c r="AA15" s="13">
+        <f t="shared" si="0"/>
+        <v>2.4224700464852362E-3</v>
+      </c>
+      <c r="AB15" s="13">
+        <f t="shared" si="0"/>
+        <v>-3.7591520052453285E-3</v>
+      </c>
+      <c r="AC15" s="13">
+        <f t="shared" si="0"/>
+        <v>-2.0173879980403771E-2</v>
+      </c>
+      <c r="AD15" s="13">
+        <f t="shared" si="0"/>
+        <v>3.0367649962484696E-2</v>
+      </c>
+      <c r="AE15" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF15" s="13">
+        <f t="shared" si="0"/>
+        <v>2.1590138381542782E-2</v>
+      </c>
+      <c r="AG15" s="13">
+        <f t="shared" si="0"/>
+        <v>-7.9902199707557954E-5</v>
+      </c>
+      <c r="AH15" s="13">
+        <f t="shared" si="0"/>
+        <v>-3.6160262282435756E-4</v>
+      </c>
+      <c r="AI15" s="21">
+        <f t="shared" si="2"/>
+        <v>3.1600184186590897E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
+      <c r="A16" s="24"/>
+      <c r="B16" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="C16">
+        <v>89820</v>
+      </c>
+      <c r="D16">
+        <v>74954</v>
+      </c>
+      <c r="E16">
+        <v>85550</v>
+      </c>
+      <c r="F16">
+        <v>87673</v>
+      </c>
+      <c r="G16">
+        <v>74793</v>
+      </c>
+      <c r="H16">
+        <v>87079.999999999985</v>
+      </c>
+      <c r="I16">
+        <v>81288</v>
+      </c>
+      <c r="J16">
+        <v>95475</v>
+      </c>
+      <c r="K16">
+        <v>73490</v>
+      </c>
+      <c r="L16">
+        <v>72829</v>
+      </c>
+      <c r="N16" s="12">
+        <v>89588</v>
+      </c>
+      <c r="O16" s="12">
+        <v>74854</v>
+      </c>
+      <c r="P16" s="12">
+        <v>85363</v>
+      </c>
+      <c r="Q16" s="12">
+        <v>87730</v>
+      </c>
+      <c r="R16" s="12">
+        <v>76424</v>
+      </c>
+      <c r="S16" s="12">
+        <v>86724</v>
+      </c>
+      <c r="T16" s="12">
+        <v>79854</v>
+      </c>
+      <c r="U16" s="23">
+        <v>95361</v>
+      </c>
+      <c r="V16" s="23">
+        <v>73605</v>
+      </c>
+      <c r="W16" s="23">
+        <v>72399</v>
+      </c>
+      <c r="Y16" s="13">
+        <f t="shared" si="1"/>
+        <v>2.5896325400723312E-3</v>
+      </c>
+      <c r="Z16" s="13">
+        <f t="shared" si="0"/>
+        <v>1.3359339514254416E-3</v>
+      </c>
+      <c r="AA16" s="13">
+        <f t="shared" si="0"/>
+        <v>2.1906446586928761E-3</v>
+      </c>
+      <c r="AB16" s="13">
+        <f t="shared" si="0"/>
+        <v>-6.4972073407044344E-4</v>
+      </c>
+      <c r="AC16" s="13">
+        <f t="shared" si="0"/>
+        <v>-2.1341463414634148E-2</v>
+      </c>
+      <c r="AD16" s="13">
+        <f t="shared" si="0"/>
+        <v>4.1049767077162656E-3</v>
+      </c>
+      <c r="AE16" s="13">
+        <f t="shared" si="0"/>
+        <v>1.7957772935607484E-2</v>
+      </c>
+      <c r="AF16" s="13">
+        <f t="shared" si="0"/>
+        <v>1.195457262402869E-3</v>
+      </c>
+      <c r="AG16" s="13">
+        <f t="shared" si="0"/>
+        <v>-1.5623938591128319E-3</v>
+      </c>
+      <c r="AH16" s="13">
+        <f t="shared" si="0"/>
+        <v>5.9393085539855527E-3</v>
+      </c>
+      <c r="AI16" s="21">
+        <f t="shared" si="2"/>
+        <v>1.1760148602085398E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A17" s="24"/>
+      <c r="B17" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="C17">
+        <v>74102</v>
+      </c>
+      <c r="D17">
+        <v>61719</v>
+      </c>
+      <c r="E17">
+        <v>69832</v>
+      </c>
+      <c r="F17">
+        <v>70341</v>
+      </c>
+      <c r="G17">
+        <v>56814</v>
+      </c>
+      <c r="H17">
+        <v>63245</v>
+      </c>
+      <c r="I17">
+        <v>62818</v>
+      </c>
+      <c r="J17">
+        <v>82429</v>
+      </c>
+      <c r="K17">
+        <v>59701</v>
+      </c>
+      <c r="L17">
+        <v>62576</v>
+      </c>
+      <c r="N17" s="12">
+        <v>72019</v>
+      </c>
+      <c r="O17" s="12">
+        <v>59351</v>
+      </c>
+      <c r="P17" s="12">
+        <v>68537</v>
+      </c>
+      <c r="Q17" s="12">
+        <v>69231</v>
+      </c>
+      <c r="R17" s="12">
+        <v>55291</v>
+      </c>
+      <c r="S17" s="12">
+        <v>62519</v>
+      </c>
+      <c r="T17" s="12">
+        <v>62213</v>
+      </c>
+      <c r="U17" s="23">
+        <v>80844</v>
+      </c>
+      <c r="V17" s="23">
+        <v>58771</v>
+      </c>
+      <c r="W17" s="23">
+        <v>61419</v>
+      </c>
+      <c r="Y17" s="13">
+        <f t="shared" si="1"/>
+        <v>2.8922923117510657E-2</v>
+      </c>
+      <c r="Z17" s="13">
+        <f t="shared" si="0"/>
+        <v>3.9898232548735486E-2</v>
+      </c>
+      <c r="AA17" s="13">
+        <f t="shared" si="0"/>
+        <v>1.8894903482790319E-2</v>
+      </c>
+      <c r="AB17" s="13">
+        <f t="shared" si="0"/>
+        <v>1.6033279889067036E-2</v>
+      </c>
+      <c r="AC17" s="13">
+        <f t="shared" si="0"/>
+        <v>2.7545170100016277E-2</v>
+      </c>
+      <c r="AD17" s="13">
+        <f t="shared" si="0"/>
+        <v>1.161246980917801E-2</v>
+      </c>
+      <c r="AE17" s="13">
+        <f t="shared" si="0"/>
+        <v>9.7246556186006139E-3</v>
+      </c>
+      <c r="AF17" s="13">
+        <f t="shared" si="0"/>
+        <v>1.9605660284003762E-2</v>
+      </c>
+      <c r="AG17" s="13">
+        <f t="shared" si="0"/>
+        <v>1.58241309489374E-2</v>
+      </c>
+      <c r="AH17" s="13">
+        <f t="shared" si="0"/>
+        <v>1.8837818915970628E-2</v>
+      </c>
+      <c r="AI17" s="21">
+        <f t="shared" si="2"/>
+        <v>2.0689924471481019E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A18" s="24"/>
+      <c r="B18" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="C18">
+        <v>78199</v>
+      </c>
+      <c r="D18">
+        <v>63050</v>
+      </c>
+      <c r="E18">
+        <v>72806</v>
+      </c>
+      <c r="F18">
+        <v>73193</v>
+      </c>
+      <c r="G18">
+        <v>59476</v>
+      </c>
+      <c r="H18">
+        <v>69661</v>
+      </c>
+      <c r="I18">
+        <v>65482</v>
+      </c>
+      <c r="J18">
+        <v>82429</v>
+      </c>
+      <c r="K18">
+        <v>59701</v>
+      </c>
+      <c r="L18">
+        <v>62576</v>
+      </c>
+      <c r="N18" s="12">
+        <v>72019</v>
+      </c>
+      <c r="O18" s="12">
+        <v>59351</v>
+      </c>
+      <c r="P18" s="12">
+        <v>68537</v>
+      </c>
+      <c r="Q18" s="12">
+        <v>69231</v>
+      </c>
+      <c r="R18" s="12">
+        <v>55277</v>
+      </c>
+      <c r="S18" s="12">
+        <v>62519</v>
+      </c>
+      <c r="T18" s="12">
+        <v>62213</v>
+      </c>
+      <c r="U18" s="23">
+        <v>80844</v>
+      </c>
+      <c r="V18" s="23">
+        <v>58771</v>
+      </c>
+      <c r="W18" s="23">
+        <v>61419</v>
+      </c>
+      <c r="Y18" s="13">
+        <f t="shared" si="1"/>
+        <v>8.5810688845998975E-2</v>
+      </c>
+      <c r="Z18" s="13">
+        <f t="shared" si="0"/>
+        <v>6.232413944162693E-2</v>
+      </c>
+      <c r="AA18" s="13">
+        <f t="shared" si="0"/>
+        <v>6.2287523527437737E-2</v>
+      </c>
+      <c r="AB18" s="13">
+        <f t="shared" si="0"/>
+        <v>5.7228698126561797E-2</v>
+      </c>
+      <c r="AC18" s="13">
+        <f t="shared" si="0"/>
+        <v>7.5962877869638373E-2</v>
+      </c>
+      <c r="AD18" s="13">
+        <f t="shared" si="0"/>
+        <v>0.11423727186935172</v>
+      </c>
+      <c r="AE18" s="13">
+        <f t="shared" si="0"/>
+        <v>5.2545287962322988E-2</v>
+      </c>
+      <c r="AF18" s="13">
+        <f t="shared" si="0"/>
+        <v>1.9605660284003762E-2</v>
+      </c>
+      <c r="AG18" s="13">
+        <f t="shared" si="0"/>
+        <v>1.58241309489374E-2</v>
+      </c>
+      <c r="AH18" s="13">
+        <f t="shared" si="0"/>
+        <v>1.8837818915970628E-2</v>
+      </c>
+      <c r="AI18" s="21">
+        <f t="shared" si="2"/>
+        <v>5.6466409779185031E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A19" s="24">
+        <v>200</v>
+      </c>
+      <c r="B19" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="C19">
+        <v>532577</v>
+      </c>
+      <c r="D19">
+        <v>578735</v>
+      </c>
+      <c r="E19">
+        <v>530145</v>
+      </c>
+      <c r="F19">
+        <v>603628</v>
+      </c>
+      <c r="G19">
+        <v>552041</v>
+      </c>
+      <c r="H19">
+        <v>502276</v>
+      </c>
+      <c r="I19">
+        <v>479129</v>
+      </c>
+      <c r="J19">
+        <v>530463</v>
+      </c>
+      <c r="K19">
+        <v>586646</v>
+      </c>
+      <c r="L19">
+        <v>576345</v>
+      </c>
+      <c r="N19" s="12">
+        <v>526666</v>
+      </c>
+      <c r="O19" s="12">
+        <v>566643</v>
+      </c>
+      <c r="P19" s="12">
+        <v>529919</v>
+      </c>
+      <c r="Q19" s="12">
+        <v>603709</v>
+      </c>
+      <c r="R19" s="12">
+        <v>547953</v>
+      </c>
+      <c r="S19" s="12">
+        <v>502276</v>
+      </c>
+      <c r="T19" s="12">
+        <v>479651</v>
+      </c>
+      <c r="U19" s="23">
+        <v>530896</v>
+      </c>
+      <c r="V19" s="23">
+        <v>575353</v>
+      </c>
+      <c r="W19" s="23">
+        <v>572866</v>
+      </c>
+      <c r="Y19" s="13">
+        <f t="shared" si="1"/>
+        <v>1.1223431928394846E-2</v>
+      </c>
+      <c r="Z19" s="13">
+        <f t="shared" si="1"/>
+        <v>2.1339714776323012E-2</v>
+      </c>
+      <c r="AA19" s="13">
+        <f t="shared" si="1"/>
+        <v>4.2648027340027439E-4</v>
+      </c>
+      <c r="AB19" s="13">
+        <f t="shared" si="1"/>
+        <v>-1.3417060206158927E-4</v>
+      </c>
+      <c r="AC19" s="13">
+        <f t="shared" si="1"/>
+        <v>7.4604938744746354E-3</v>
+      </c>
+      <c r="AD19" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="13">
+        <f t="shared" si="1"/>
+        <v>-1.0882912784503733E-3</v>
+      </c>
+      <c r="AF19" s="13">
+        <f t="shared" si="1"/>
+        <v>-8.1560230252252799E-4</v>
+      </c>
+      <c r="AG19" s="13">
+        <f t="shared" si="1"/>
+        <v>1.9627950145389005E-2</v>
+      </c>
+      <c r="AH19" s="13">
+        <f t="shared" si="1"/>
+        <v>6.0729734353234437E-3</v>
+      </c>
+      <c r="AI19" s="21">
+        <f t="shared" si="2"/>
+        <v>6.4112980250270717E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A20" s="24"/>
+      <c r="B20" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="C20">
+        <v>301492</v>
+      </c>
+      <c r="D20">
+        <v>336234</v>
+      </c>
+      <c r="E20">
+        <v>308280</v>
+      </c>
+      <c r="F20">
+        <v>360852</v>
+      </c>
+      <c r="G20">
+        <v>322268</v>
+      </c>
+      <c r="H20">
+        <v>293336</v>
+      </c>
+      <c r="I20">
+        <v>279374</v>
+      </c>
+      <c r="J20">
+        <v>293580</v>
+      </c>
+      <c r="K20">
+        <v>331641</v>
+      </c>
+      <c r="L20">
+        <v>332714</v>
+      </c>
+      <c r="N20" s="12">
+        <v>301449</v>
+      </c>
+      <c r="O20" s="12">
+        <v>335714</v>
+      </c>
+      <c r="P20" s="12">
+        <v>308278</v>
+      </c>
+      <c r="Q20" s="12">
+        <v>360852</v>
+      </c>
+      <c r="R20" s="12">
+        <v>322268</v>
+      </c>
+      <c r="S20" s="12">
+        <v>292453</v>
+      </c>
+      <c r="T20" s="12">
+        <v>279576</v>
+      </c>
+      <c r="U20" s="23">
+        <v>288746</v>
+      </c>
+      <c r="V20" s="23">
+        <v>331107</v>
+      </c>
+      <c r="W20" s="23">
+        <v>332808</v>
+      </c>
+      <c r="Y20" s="13">
+        <f t="shared" si="1"/>
+        <v>1.4264436106936829E-4</v>
+      </c>
+      <c r="Z20" s="13">
+        <f t="shared" si="1"/>
+        <v>1.5489374884574371E-3</v>
+      </c>
+      <c r="AA20" s="13">
+        <f t="shared" si="1"/>
+        <v>6.4876507567844612E-6</v>
+      </c>
+      <c r="AB20" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="13">
+        <f t="shared" si="1"/>
+        <v>3.019288569445347E-3</v>
+      </c>
+      <c r="AE20" s="13">
+        <f t="shared" si="1"/>
+        <v>-7.2252267719689813E-4</v>
+      </c>
+      <c r="AF20" s="13">
+        <f t="shared" si="1"/>
+        <v>1.6741357456034021E-2</v>
+      </c>
+      <c r="AG20" s="13">
+        <f t="shared" si="1"/>
+        <v>1.6127717021989869E-3</v>
+      </c>
+      <c r="AH20" s="13">
+        <f t="shared" si="1"/>
+        <v>-2.8244513353044396E-4</v>
+      </c>
+      <c r="AI20" s="21">
+        <f t="shared" si="2"/>
+        <v>2.2066519417234601E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A21" s="24"/>
+      <c r="B21" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="C21">
+        <v>264227</v>
+      </c>
+      <c r="D21">
+        <v>272631</v>
+      </c>
+      <c r="E21">
+        <v>265900</v>
+      </c>
+      <c r="F21">
+        <v>310243</v>
+      </c>
+      <c r="G21">
+        <v>270361</v>
+      </c>
+      <c r="H21">
+        <v>239932</v>
+      </c>
+      <c r="I21">
+        <v>252277</v>
+      </c>
+      <c r="J21">
+        <v>230872</v>
+      </c>
+      <c r="K21">
+        <v>258436</v>
+      </c>
+      <c r="L21">
+        <v>277126</v>
+      </c>
+      <c r="N21" s="12">
+        <v>254268</v>
+      </c>
+      <c r="O21" s="12">
+        <v>266028</v>
+      </c>
+      <c r="P21" s="12">
+        <v>254647</v>
+      </c>
+      <c r="Q21" s="12">
+        <v>297269</v>
+      </c>
+      <c r="R21" s="12">
+        <v>260455</v>
+      </c>
+      <c r="S21" s="12">
+        <v>236160</v>
+      </c>
+      <c r="T21" s="12">
+        <v>247555</v>
+      </c>
+      <c r="U21" s="23">
+        <v>225572</v>
+      </c>
+      <c r="V21" s="23">
+        <v>255029</v>
+      </c>
+      <c r="W21" s="23">
+        <v>269236</v>
+      </c>
+      <c r="Y21" s="13">
+        <f t="shared" si="1"/>
+        <v>3.9167335252568158E-2</v>
+      </c>
+      <c r="Z21" s="13">
+        <f t="shared" si="1"/>
+        <v>2.4820695565880284E-2</v>
+      </c>
+      <c r="AA21" s="13">
+        <f t="shared" si="1"/>
+        <v>4.4190585398610628E-2</v>
+      </c>
+      <c r="AB21" s="13">
+        <f t="shared" si="1"/>
+        <v>4.3643972294453846E-2</v>
+      </c>
+      <c r="AC21" s="13">
+        <f t="shared" si="1"/>
+        <v>3.8033441477414526E-2</v>
+      </c>
+      <c r="AD21" s="13">
+        <f t="shared" si="1"/>
+        <v>1.5972222222222221E-2</v>
+      </c>
+      <c r="AE21" s="13">
+        <f t="shared" si="1"/>
+        <v>1.907454909010119E-2</v>
+      </c>
+      <c r="AF21" s="13">
+        <f t="shared" si="1"/>
+        <v>2.3495823949781003E-2</v>
+      </c>
+      <c r="AG21" s="13">
+        <f t="shared" si="1"/>
+        <v>1.3359265024761889E-2</v>
+      </c>
+      <c r="AH21" s="13">
+        <f t="shared" si="1"/>
+        <v>2.9305144928612817E-2</v>
+      </c>
+      <c r="AI21" s="21">
+        <f t="shared" si="2"/>
+        <v>2.9106303520440656E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A22" s="24"/>
+      <c r="B22" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="C22">
+        <v>266413</v>
+      </c>
+      <c r="D22">
+        <v>292096</v>
+      </c>
+      <c r="E22">
+        <v>267014</v>
+      </c>
+      <c r="F22">
+        <v>318313</v>
+      </c>
+      <c r="G22">
+        <v>276181</v>
+      </c>
+      <c r="H22">
+        <v>239932</v>
+      </c>
+      <c r="I22">
+        <v>252277</v>
+      </c>
+      <c r="J22">
+        <v>238554</v>
+      </c>
+      <c r="K22">
+        <v>265171</v>
+      </c>
+      <c r="L22">
+        <v>282811</v>
+      </c>
+      <c r="N22" s="12">
+        <v>254268</v>
+      </c>
+      <c r="O22" s="12">
+        <v>266028</v>
+      </c>
+      <c r="P22" s="12">
+        <v>254647</v>
+      </c>
+      <c r="Q22" s="12">
+        <v>297269</v>
+      </c>
+      <c r="R22" s="12">
+        <v>260455</v>
+      </c>
+      <c r="S22" s="12">
+        <v>236160</v>
+      </c>
+      <c r="T22" s="12">
+        <v>247555</v>
+      </c>
+      <c r="U22" s="23">
+        <v>225572</v>
+      </c>
+      <c r="V22" s="23">
+        <v>255029</v>
+      </c>
+      <c r="W22" s="23">
+        <v>269236</v>
+      </c>
+      <c r="Y22" s="13">
+        <f t="shared" si="1"/>
+        <v>4.7764563374077744E-2</v>
+      </c>
+      <c r="Z22" s="13">
+        <f t="shared" si="1"/>
+        <v>9.7989685296284601E-2</v>
+      </c>
+      <c r="AA22" s="13">
+        <f t="shared" si="1"/>
+        <v>4.8565268783845872E-2</v>
+      </c>
+      <c r="AB22" s="13">
+        <f t="shared" si="1"/>
+        <v>7.0791101662130929E-2</v>
+      </c>
+      <c r="AC22" s="13">
+        <f t="shared" si="1"/>
+        <v>6.0378952218233473E-2</v>
+      </c>
+      <c r="AD22" s="13">
+        <f t="shared" si="1"/>
+        <v>1.5972222222222221E-2</v>
+      </c>
+      <c r="AE22" s="13">
+        <f t="shared" si="1"/>
+        <v>1.907454909010119E-2</v>
+      </c>
+      <c r="AF22" s="13">
+        <f t="shared" si="1"/>
+        <v>5.7551469153973009E-2</v>
+      </c>
+      <c r="AG22" s="13">
+        <f t="shared" si="1"/>
+        <v>3.97680263813135E-2</v>
+      </c>
+      <c r="AH22" s="13">
+        <f t="shared" si="1"/>
+        <v>5.0420448974134217E-2</v>
+      </c>
+      <c r="AI22" s="21">
+        <f t="shared" si="2"/>
+        <v>5.0827628715631679E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A23" s="24">
+        <v>500</v>
+      </c>
+      <c r="B23" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="C23">
+        <v>3143462</v>
+      </c>
+      <c r="D23">
+        <v>3573150</v>
+      </c>
+      <c r="E23">
+        <v>3298926</v>
+      </c>
+      <c r="F23">
+        <v>3408724</v>
+      </c>
+      <c r="G23">
+        <v>3385898</v>
+      </c>
+      <c r="H23">
+        <v>3024029</v>
+      </c>
+      <c r="I23">
+        <v>3407676</v>
+      </c>
+      <c r="J23">
+        <v>3376634</v>
+      </c>
+      <c r="K23">
+        <v>3617725</v>
+      </c>
+      <c r="L23">
+        <v>3328137</v>
+      </c>
+      <c r="N23" s="12">
+        <v>3113088</v>
+      </c>
+      <c r="O23" s="12">
+        <v>3569058</v>
+      </c>
+      <c r="P23" s="12">
+        <v>3300744</v>
+      </c>
+      <c r="Q23" s="12">
+        <v>3408867</v>
+      </c>
+      <c r="R23" s="12">
+        <v>3377547</v>
+      </c>
+      <c r="S23" s="12">
+        <v>3024082</v>
+      </c>
+      <c r="T23" s="12">
+        <v>3381166</v>
+      </c>
+      <c r="U23" s="23">
+        <v>3376678</v>
+      </c>
+      <c r="V23" s="23">
+        <v>3617807</v>
+      </c>
+      <c r="W23" s="23">
+        <v>3315019</v>
+      </c>
+      <c r="Y23" s="13">
+        <f t="shared" si="1"/>
+        <v>9.7568716335676986E-3</v>
+      </c>
+      <c r="Z23" s="13">
+        <f t="shared" si="1"/>
+        <v>1.1465210147887763E-3</v>
+      </c>
+      <c r="AA23" s="13">
+        <f t="shared" si="1"/>
+        <v>-5.5078491394667389E-4</v>
+      </c>
+      <c r="AB23" s="13">
+        <f t="shared" si="1"/>
+        <v>-4.1949421904697364E-5</v>
+      </c>
+      <c r="AC23" s="13">
+        <f t="shared" si="1"/>
+        <v>2.472504453675996E-3</v>
+      </c>
+      <c r="AD23" s="13">
+        <f t="shared" si="1"/>
+        <v>-1.7525979784939693E-5</v>
+      </c>
+      <c r="AE23" s="13">
+        <f t="shared" si="1"/>
+        <v>7.8404905290068577E-3</v>
+      </c>
+      <c r="AF23" s="13">
+        <f t="shared" si="1"/>
+        <v>-1.3030558436427755E-5</v>
+      </c>
+      <c r="AG23" s="13">
+        <f t="shared" si="1"/>
+        <v>-2.2665664586308776E-5</v>
+      </c>
+      <c r="AH23" s="13">
+        <f t="shared" si="1"/>
+        <v>3.9571417237729252E-3</v>
+      </c>
+      <c r="AI23" s="21">
+        <f t="shared" si="2"/>
+        <v>2.4527572816153208E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A24" s="24"/>
+      <c r="B24" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="C24">
+        <v>1825910</v>
+      </c>
+      <c r="D24">
+        <v>2064996</v>
+      </c>
+      <c r="E24">
+        <v>1910113</v>
+      </c>
+      <c r="F24">
+        <v>1933304</v>
+      </c>
+      <c r="G24">
+        <v>1891510</v>
+      </c>
+      <c r="H24">
+        <v>1658166</v>
+      </c>
+      <c r="I24">
+        <v>1971248</v>
+      </c>
+      <c r="J24">
+        <v>1934088</v>
+      </c>
+      <c r="K24">
+        <v>2065434</v>
+      </c>
+      <c r="L24">
+        <v>1958186</v>
+      </c>
+      <c r="N24" s="12">
+        <v>1839902</v>
+      </c>
+      <c r="O24" s="12">
+        <v>2064998</v>
+      </c>
+      <c r="P24" s="12">
+        <v>1909304</v>
+      </c>
+      <c r="Q24" s="12">
+        <v>1930829</v>
+      </c>
+      <c r="R24" s="12">
+        <v>1881221</v>
+      </c>
+      <c r="S24" s="12">
+        <v>1658411</v>
+      </c>
+      <c r="T24" s="12">
+        <v>1971176</v>
+      </c>
+      <c r="U24" s="23">
+        <v>1924191</v>
+      </c>
+      <c r="V24" s="23">
+        <v>2065647</v>
+      </c>
+      <c r="W24" s="23">
+        <v>1928579</v>
+      </c>
+      <c r="Y24" s="13">
+        <f t="shared" si="1"/>
+        <v>-7.6047528618372068E-3</v>
+      </c>
+      <c r="Z24" s="13">
+        <f t="shared" si="1"/>
+        <v>-9.6852394045902234E-7</v>
+      </c>
+      <c r="AA24" s="13">
+        <f t="shared" si="1"/>
+        <v>4.2371461014065859E-4</v>
+      </c>
+      <c r="AB24" s="13">
+        <f t="shared" si="1"/>
+        <v>1.2818328293183912E-3</v>
+      </c>
+      <c r="AC24" s="13">
+        <f t="shared" si="1"/>
+        <v>5.4693201915139156E-3</v>
+      </c>
+      <c r="AD24" s="13">
+        <f t="shared" si="1"/>
+        <v>-1.4773177457216578E-4</v>
+      </c>
+      <c r="AE24" s="13">
+        <f t="shared" si="1"/>
+        <v>3.6526418746981496E-5</v>
+      </c>
+      <c r="AF24" s="13">
+        <f t="shared" si="1"/>
+        <v>5.1434602905844583E-3</v>
+      </c>
+      <c r="AG24" s="13">
+        <f t="shared" si="1"/>
+        <v>-1.0311539193289076E-4</v>
+      </c>
+      <c r="AH24" s="13">
+        <f t="shared" si="1"/>
+        <v>1.5351717508072005E-2</v>
+      </c>
+      <c r="AI24" s="21">
+        <f t="shared" si="2"/>
+        <v>1.9850003296093691E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A25" s="24"/>
+      <c r="B25" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="C25">
+        <v>1636595</v>
+      </c>
+      <c r="D25">
+        <v>1758200</v>
+      </c>
+      <c r="E25">
+        <v>1718400</v>
+      </c>
+      <c r="F25">
+        <v>1719881</v>
+      </c>
+      <c r="G25">
+        <v>1508423</v>
+      </c>
+      <c r="H25">
+        <v>1473446</v>
+      </c>
+      <c r="I25">
+        <v>1681408</v>
+      </c>
+      <c r="J25">
+        <v>1593531</v>
+      </c>
+      <c r="K25">
+        <v>1732734</v>
+      </c>
+      <c r="L25">
+        <v>1560322</v>
+      </c>
+      <c r="N25" s="12">
+        <v>1581233</v>
+      </c>
+      <c r="O25" s="12">
+        <v>1715332</v>
+      </c>
+      <c r="P25" s="12">
+        <v>1644947</v>
+      </c>
+      <c r="Q25" s="12">
+        <v>1640942</v>
+      </c>
+      <c r="R25" s="12">
+        <v>1468325</v>
+      </c>
+      <c r="S25" s="12">
+        <v>1413345</v>
+      </c>
+      <c r="T25" s="12">
+        <v>1634912</v>
+      </c>
+      <c r="U25" s="23">
+        <v>1542090</v>
+      </c>
+      <c r="V25" s="23">
+        <v>1684055</v>
+      </c>
+      <c r="W25" s="23">
+        <v>1520515</v>
+      </c>
+      <c r="Y25" s="13">
+        <f t="shared" si="1"/>
+        <v>3.5011917914690625E-2</v>
+      </c>
+      <c r="Z25" s="13">
+        <f t="shared" si="1"/>
+        <v>2.4991080443902403E-2</v>
+      </c>
+      <c r="AA25" s="13">
+        <f t="shared" si="1"/>
+        <v>4.4653718326487117E-2</v>
+      </c>
+      <c r="AB25" s="13">
+        <f t="shared" si="1"/>
+        <v>4.8105905022846632E-2</v>
+      </c>
+      <c r="AC25" s="13">
+        <f t="shared" si="1"/>
+        <v>2.7308668040113736E-2</v>
+      </c>
+      <c r="AD25" s="13">
+        <f t="shared" si="1"/>
+        <v>4.2523941429728762E-2</v>
+      </c>
+      <c r="AE25" s="13">
+        <f t="shared" si="1"/>
+        <v>2.8439451175353781E-2</v>
+      </c>
+      <c r="AF25" s="13">
+        <f t="shared" si="1"/>
+        <v>3.3357975215454354E-2</v>
+      </c>
+      <c r="AG25" s="13">
+        <f t="shared" si="1"/>
+        <v>2.8905825522325578E-2</v>
+      </c>
+      <c r="AH25" s="13">
+        <f t="shared" si="1"/>
+        <v>2.6179945610533273E-2</v>
+      </c>
+      <c r="AI25" s="21">
+        <f t="shared" si="2"/>
+        <v>3.3947842870143623E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A26" s="24"/>
+      <c r="B26" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="C26">
+        <v>1639431</v>
+      </c>
+      <c r="D26">
+        <v>1776069</v>
+      </c>
+      <c r="E26">
+        <v>1725076</v>
+      </c>
+      <c r="F26">
+        <v>1736250</v>
+      </c>
+      <c r="G26">
+        <v>1532311</v>
+      </c>
+      <c r="H26">
+        <v>1476420</v>
+      </c>
+      <c r="I26">
+        <v>1690793</v>
+      </c>
+      <c r="J26">
+        <v>1631343</v>
+      </c>
+      <c r="K26">
+        <v>1766979</v>
+      </c>
+      <c r="L26">
+        <v>1624753</v>
+      </c>
+      <c r="N26" s="12">
+        <v>1581233</v>
+      </c>
+      <c r="O26" s="12">
+        <v>1715322</v>
+      </c>
+      <c r="P26" s="12">
+        <v>1644947</v>
+      </c>
+      <c r="Q26" s="12">
+        <v>1640942</v>
+      </c>
+      <c r="R26" s="12">
+        <v>1468325</v>
+      </c>
+      <c r="S26" s="12">
+        <v>1413345</v>
+      </c>
+      <c r="T26" s="12">
+        <v>1634912</v>
+      </c>
+      <c r="U26" s="23">
+        <v>1542090</v>
+      </c>
+      <c r="V26" s="23">
+        <v>1684055</v>
+      </c>
+      <c r="W26" s="23">
+        <v>1520515</v>
+      </c>
+      <c r="Y26" s="13">
+        <f t="shared" si="1"/>
+        <v>3.6805454983547647E-2</v>
+      </c>
+      <c r="Z26" s="13">
+        <f t="shared" si="1"/>
+        <v>3.5414342030242719E-2</v>
+      </c>
+      <c r="AA26" s="13">
+        <f t="shared" si="1"/>
+        <v>4.8712207748942672E-2</v>
+      </c>
+      <c r="AB26" s="13">
+        <f t="shared" si="1"/>
+        <v>5.8081272829874547E-2</v>
+      </c>
+      <c r="AC26" s="13">
+        <f t="shared" si="1"/>
+        <v>4.3577545843052456E-2</v>
+      </c>
+      <c r="AD26" s="13">
+        <f t="shared" si="1"/>
+        <v>4.4628169342941747E-2</v>
+      </c>
+      <c r="AE26" s="13">
+        <f t="shared" si="1"/>
+        <v>3.417982129925036E-2</v>
+      </c>
+      <c r="AF26" s="13">
+        <f t="shared" si="1"/>
+        <v>5.7877944867031107E-2</v>
+      </c>
+      <c r="AG26" s="13">
+        <f t="shared" si="1"/>
+        <v>4.9240672068311307E-2</v>
+      </c>
+      <c r="AH26" s="13">
+        <f t="shared" si="1"/>
+        <v>6.8554404264344643E-2</v>
+      </c>
+      <c r="AI26" s="21">
+        <f t="shared" si="2"/>
+        <v>4.7707183527753917E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A27" s="24">
+        <v>1000</v>
+      </c>
+      <c r="B27" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="C27">
+        <v>15213687</v>
+      </c>
+      <c r="D27">
+        <v>13367658</v>
+      </c>
+      <c r="E27">
+        <v>12951115</v>
+      </c>
+      <c r="F27">
+        <v>12723914</v>
+      </c>
+      <c r="G27">
+        <v>13506180</v>
+      </c>
+      <c r="H27">
+        <v>12331683</v>
+      </c>
+      <c r="I27">
+        <v>14158879</v>
+      </c>
+      <c r="J27">
+        <v>13351762</v>
+      </c>
+      <c r="K27">
+        <v>12537148</v>
+      </c>
+      <c r="L27">
+        <v>13394485</v>
+      </c>
+      <c r="N27" s="12">
+        <v>15190371</v>
+      </c>
+      <c r="O27" s="12">
+        <v>13356727</v>
+      </c>
+      <c r="P27" s="12">
+        <v>12919259</v>
+      </c>
+      <c r="Q27" s="12">
+        <v>12705290</v>
+      </c>
+      <c r="R27" s="12">
+        <v>13276868</v>
+      </c>
+      <c r="S27" s="12">
+        <v>12236080</v>
+      </c>
+      <c r="T27" s="12">
+        <v>14160773</v>
+      </c>
+      <c r="U27" s="23">
+        <v>13314723</v>
+      </c>
+      <c r="V27" s="23">
+        <v>12433821</v>
+      </c>
+      <c r="W27" s="23">
+        <v>13395234</v>
+      </c>
+      <c r="Y27" s="13">
+        <f t="shared" si="1"/>
+        <v>1.5349197198672765E-3</v>
+      </c>
+      <c r="Z27" s="13">
+        <f t="shared" si="1"/>
+        <v>8.1838911583653686E-4</v>
+      </c>
+      <c r="AA27" s="13">
+        <f t="shared" si="1"/>
+        <v>2.4657760944338989E-3</v>
+      </c>
+      <c r="AB27" s="13">
+        <f t="shared" si="1"/>
+        <v>1.4658461160666147E-3</v>
+      </c>
+      <c r="AC27" s="13">
+        <f t="shared" si="1"/>
+        <v>1.7271543258545616E-2</v>
+      </c>
+      <c r="AD27" s="13">
+        <f t="shared" si="1"/>
+        <v>7.8132048826094636E-3</v>
+      </c>
+      <c r="AE27" s="13">
+        <f t="shared" si="1"/>
+        <v>-1.3374976069456095E-4</v>
+      </c>
+      <c r="AF27" s="13">
+        <f t="shared" si="1"/>
+        <v>2.7818077777509902E-3</v>
+      </c>
+      <c r="AG27" s="13">
+        <f t="shared" si="1"/>
+        <v>8.3101566284410882E-3</v>
+      </c>
+      <c r="AH27" s="13">
+        <f t="shared" si="1"/>
+        <v>-5.5915409913705128E-5</v>
+      </c>
+      <c r="AI27" s="21">
+        <f t="shared" si="2"/>
+        <v>4.2271978422943213E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A28" s="24"/>
+      <c r="B28" s="20">
+        <v>0.4</v>
+      </c>
+      <c r="C28">
+        <v>8687130</v>
+      </c>
+      <c r="D28">
+        <v>7596142</v>
+      </c>
+      <c r="E28">
+        <v>7319340</v>
+      </c>
+      <c r="F28">
+        <v>7305204</v>
+      </c>
+      <c r="G28">
+        <v>7748062</v>
+      </c>
+      <c r="H28">
+        <v>7143630</v>
+      </c>
+      <c r="I28">
+        <v>8413733</v>
+      </c>
+      <c r="J28">
+        <v>7510248</v>
+      </c>
+      <c r="K28">
+        <v>7323545</v>
+      </c>
+      <c r="L28">
+        <v>7617185</v>
+      </c>
+      <c r="N28" s="12">
+        <v>8570154</v>
+      </c>
+      <c r="O28" s="12">
+        <v>7592040</v>
+      </c>
+      <c r="P28" s="12">
+        <v>7313736</v>
+      </c>
+      <c r="Q28" s="12">
+        <v>7300217</v>
+      </c>
+      <c r="R28" s="12">
+        <v>7738367</v>
+      </c>
+      <c r="S28" s="12">
+        <v>7144491</v>
+      </c>
+      <c r="T28" s="12">
+        <v>8426024</v>
+      </c>
+      <c r="U28" s="23">
+        <v>7508507</v>
+      </c>
+      <c r="V28" s="23">
+        <v>7299271</v>
+      </c>
+      <c r="W28" s="23">
+        <v>7617658</v>
+      </c>
+      <c r="Y28" s="13">
+        <f t="shared" si="1"/>
+        <v>1.3649229640447534E-2</v>
+      </c>
+      <c r="Z28" s="13">
+        <f t="shared" si="1"/>
+        <v>5.4030273813098981E-4</v>
+      </c>
+      <c r="AA28" s="13">
+        <f t="shared" si="1"/>
+        <v>7.6622946193299836E-4</v>
+      </c>
+      <c r="AB28" s="13">
+        <f t="shared" si="1"/>
+        <v>6.8313037817916919E-4</v>
+      </c>
+      <c r="AC28" s="13">
+        <f t="shared" si="1"/>
+        <v>1.2528483076597427E-3</v>
+      </c>
+      <c r="AD28" s="13">
+        <f t="shared" si="1"/>
+        <v>-1.2051243398585008E-4</v>
+      </c>
+      <c r="AE28" s="13">
+        <f t="shared" si="1"/>
+        <v>-1.4586951093421999E-3</v>
+      </c>
+      <c r="AF28" s="13">
+        <f t="shared" si="1"/>
+        <v>2.3187033054640556E-4</v>
+      </c>
+      <c r="AG28" s="13">
+        <f t="shared" si="1"/>
+        <v>3.3255375776567275E-3</v>
+      </c>
+      <c r="AH28" s="13">
+        <f t="shared" si="1"/>
+        <v>-6.2092574909506314E-5</v>
+      </c>
+      <c r="AI28" s="21">
+        <f t="shared" si="2"/>
+        <v>1.880784831631601E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A29" s="24"/>
+      <c r="B29" s="20">
+        <v>0.6</v>
+      </c>
+      <c r="C29">
+        <v>6502309</v>
+      </c>
+      <c r="D29">
+        <v>6287407</v>
+      </c>
+      <c r="E29">
+        <v>6170324</v>
+      </c>
+      <c r="F29">
+        <v>6282475</v>
+      </c>
+      <c r="G29">
+        <v>6601566</v>
+      </c>
+      <c r="H29">
+        <v>6264160</v>
+      </c>
+      <c r="I29">
+        <v>6730466</v>
+      </c>
+      <c r="J29">
+        <v>6297542</v>
+      </c>
+      <c r="K29">
+        <v>6439269</v>
+      </c>
+      <c r="L29">
+        <v>6380961</v>
+      </c>
+      <c r="N29" s="12">
+        <v>6411581</v>
+      </c>
+      <c r="O29" s="12">
+        <v>6112598</v>
+      </c>
+      <c r="P29" s="12">
+        <v>5985538</v>
+      </c>
+      <c r="Q29" s="12">
+        <v>6096729</v>
+      </c>
+      <c r="R29" s="12">
+        <v>6348242</v>
+      </c>
+      <c r="S29" s="12">
+        <v>6082142</v>
+      </c>
+      <c r="T29" s="12">
+        <v>6575879</v>
+      </c>
+      <c r="U29" s="23">
+        <v>6069658</v>
+      </c>
+      <c r="V29" s="23">
+        <v>6188416</v>
+      </c>
+      <c r="W29" s="23">
+        <v>6147295</v>
+      </c>
+      <c r="Y29" s="13">
+        <f t="shared" si="1"/>
+        <v>1.4150643967533124E-2</v>
+      </c>
+      <c r="Z29" s="13">
+        <f t="shared" si="1"/>
+        <v>2.8598150900811733E-2</v>
+      </c>
+      <c r="AA29" s="13">
+        <f t="shared" si="1"/>
+        <v>3.0872078666946898E-2</v>
+      </c>
+      <c r="AB29" s="13">
+        <f t="shared" si="1"/>
+        <v>3.0466500971258522E-2</v>
+      </c>
+      <c r="AC29" s="13">
+        <f t="shared" si="1"/>
+        <v>3.9904590908790179E-2</v>
+      </c>
+      <c r="AD29" s="13">
+        <f t="shared" si="1"/>
+        <v>2.9926627822895291E-2</v>
+      </c>
+      <c r="AE29" s="13">
+        <f t="shared" si="1"/>
+        <v>2.3508188030832076E-2</v>
+      </c>
+      <c r="AF29" s="13">
+        <f t="shared" si="1"/>
+        <v>3.7544784236607731E-2</v>
+      </c>
+      <c r="AG29" s="13">
+        <f t="shared" si="1"/>
+        <v>4.0535898039175129E-2</v>
+      </c>
+      <c r="AH29" s="13">
+        <f t="shared" si="1"/>
+        <v>3.8011190287760711E-2</v>
+      </c>
+      <c r="AI29" s="21">
+        <f t="shared" si="2"/>
+        <v>3.1351865383261138E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A30" s="24"/>
+      <c r="B30" s="20">
+        <v>0.8</v>
+      </c>
+      <c r="C30">
+        <v>6817569</v>
+      </c>
+      <c r="D30">
+        <v>6490174</v>
+      </c>
+      <c r="E30">
+        <v>6215653</v>
+      </c>
+      <c r="F30">
+        <v>6334247</v>
+      </c>
+      <c r="G30">
+        <v>6687168</v>
+      </c>
+      <c r="H30">
+        <v>6264160</v>
+      </c>
+      <c r="I30">
+        <v>6881053</v>
+      </c>
+      <c r="J30">
+        <v>6480877</v>
+      </c>
+      <c r="K30">
+        <v>6489749</v>
+      </c>
+      <c r="L30">
+        <v>6480724</v>
+      </c>
+      <c r="N30" s="12">
+        <v>6411581</v>
+      </c>
+      <c r="O30" s="12">
+        <v>6112598</v>
+      </c>
+      <c r="P30" s="12">
+        <v>5985538</v>
+      </c>
+      <c r="Q30" s="12">
+        <v>6096729</v>
+      </c>
+      <c r="R30" s="12">
+        <v>6348242</v>
+      </c>
+      <c r="S30" s="12">
+        <v>6082142</v>
+      </c>
+      <c r="T30" s="12">
+        <v>6575879</v>
+      </c>
+      <c r="U30" s="23">
+        <v>6069658</v>
+      </c>
+      <c r="V30" s="23">
+        <v>6188416</v>
+      </c>
+      <c r="W30" s="23">
+        <v>6147295</v>
+      </c>
+      <c r="Y30" s="13">
+        <f t="shared" si="1"/>
+        <v>6.3321043592836149E-2</v>
+      </c>
+      <c r="Z30" s="13">
+        <f t="shared" si="1"/>
+        <v>6.1770134401117172E-2</v>
+      </c>
+      <c r="AA30" s="13">
+        <f t="shared" si="1"/>
+        <v>3.8445165664306197E-2</v>
+      </c>
+      <c r="AB30" s="13">
+        <f t="shared" si="1"/>
+        <v>3.8958267621867396E-2</v>
+      </c>
+      <c r="AC30" s="13">
+        <f t="shared" si="1"/>
+        <v>5.3388953981275446E-2</v>
+      </c>
+      <c r="AD30" s="13">
+        <f t="shared" si="1"/>
+        <v>2.9926627822895291E-2</v>
+      </c>
+      <c r="AE30" s="13">
+        <f t="shared" si="1"/>
+        <v>4.6408092363013367E-2</v>
+      </c>
+      <c r="AF30" s="13">
+        <f t="shared" si="1"/>
+        <v>6.7749945713580562E-2</v>
+      </c>
+      <c r="AG30" s="13">
+        <f t="shared" si="1"/>
+        <v>4.8693074285891577E-2</v>
+      </c>
+      <c r="AH30" s="13">
+        <f t="shared" si="1"/>
+        <v>5.4239954321372248E-2</v>
+      </c>
+      <c r="AI30" s="21">
+        <f t="shared" si="2"/>
+        <v>5.029012597681555E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="C1:L1"/>
+    <mergeCell ref="N1:W1"/>
+    <mergeCell ref="AM2:AS2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS30"/>
   <sheetViews>
     <sheetView zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W6" sqref="N3:W6"/>
+      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AJ10" sqref="AJ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -667,30 +4110,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="N1" s="22" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="N1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
       <c r="Y1" t="s">
         <v>3</v>
       </c>
@@ -792,19 +4235,19 @@
       <c r="AI2" t="s">
         <v>4</v>
       </c>
-      <c r="AM2" s="22" t="str">
+      <c r="AM2" s="26" t="str">
         <f>"Comparativo - "&amp;A2</f>
         <v>Comparativo - z=2</v>
       </c>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="22"/>
-      <c r="AP2" s="22"/>
-      <c r="AQ2" s="22"/>
-      <c r="AR2" s="22"/>
-      <c r="AS2" s="22"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="26"/>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A3" s="20">
+      <c r="A3" s="24">
         <v>10</v>
       </c>
       <c r="B3" s="1">
@@ -940,7 +4383,7 @@
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1">
         <v>0.4</v>
       </c>
@@ -1053,7 +4496,7 @@
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="1">
         <v>0.6</v>
       </c>
@@ -1164,37 +4607,37 @@
       <c r="AL5" s="1">
         <v>0.2</v>
       </c>
-      <c r="AM5" s="4">
+      <c r="AM5" s="31">
         <f>AI3</f>
         <v>-1.3121089266513487E-3</v>
       </c>
-      <c r="AN5" s="4">
+      <c r="AN5" s="31">
         <f>AI7</f>
         <v>2.231326796520235E-2</v>
       </c>
-      <c r="AO5" s="4">
+      <c r="AO5" s="31">
         <f>AI11</f>
         <v>-3.4597782587582518E-2</v>
       </c>
-      <c r="AP5" s="4">
+      <c r="AP5" s="31">
         <f>AI15</f>
         <v>-4.6219594023589584E-2</v>
       </c>
-      <c r="AQ5" s="4">
+      <c r="AQ5" s="31">
         <f>AI19</f>
         <v>-4.8127138517817331E-2</v>
       </c>
-      <c r="AR5" s="4">
+      <c r="AR5" s="31">
         <f>AI23</f>
         <v>-5.2559816947965646E-2</v>
       </c>
-      <c r="AS5" s="4">
+      <c r="AS5" s="31">
         <f>AI27</f>
         <v>-5.8403039277562241E-2</v>
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="1">
         <v>0.8</v>
       </c>
@@ -1305,37 +4748,37 @@
       <c r="AL6" s="1">
         <v>0.4</v>
       </c>
-      <c r="AM6" s="4">
+      <c r="AM6" s="31">
         <f t="shared" ref="AM6:AM8" si="3">AI4</f>
         <v>0.15071081405044667</v>
       </c>
-      <c r="AN6" s="4">
+      <c r="AN6" s="31">
         <f t="shared" ref="AN6:AN8" si="4">AI8</f>
         <v>5.9059020038549528E-2</v>
       </c>
-      <c r="AO6" s="4">
+      <c r="AO6" s="31">
         <f t="shared" ref="AO6:AO8" si="5">AI12</f>
         <v>-1.2509589072987933E-2</v>
       </c>
-      <c r="AP6" s="4">
+      <c r="AP6" s="31">
         <f t="shared" ref="AP6:AP8" si="6">AI16</f>
         <v>-2.435453025739983E-2</v>
       </c>
-      <c r="AQ6" s="4">
+      <c r="AQ6" s="31">
         <f t="shared" ref="AQ6:AQ8" si="7">AI20</f>
         <v>-1.9114375483981809E-2</v>
       </c>
-      <c r="AR6" s="4">
+      <c r="AR6" s="31">
         <f t="shared" ref="AR6:AR8" si="8">AI24</f>
         <v>-1.9367035995304004E-2</v>
       </c>
-      <c r="AS6" s="4">
+      <c r="AS6" s="31">
         <f t="shared" ref="AS6:AS8" si="9">AI28</f>
         <v>-2.9714247097989265E-2</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A7" s="20">
+      <c r="A7" s="24">
         <v>20</v>
       </c>
       <c r="B7" s="1">
@@ -1448,37 +4891,37 @@
       <c r="AL7" s="1">
         <v>0.6</v>
       </c>
-      <c r="AM7" s="4">
+      <c r="AM7" s="31">
         <f t="shared" si="3"/>
         <v>0.22874656715554517</v>
       </c>
-      <c r="AN7" s="4">
+      <c r="AN7" s="31">
         <f t="shared" si="4"/>
         <v>0.10643021162581942</v>
       </c>
-      <c r="AO7" s="4">
+      <c r="AO7" s="31">
         <f t="shared" si="5"/>
         <v>9.8119985234339971E-2</v>
       </c>
-      <c r="AP7" s="4">
+      <c r="AP7" s="31">
         <f t="shared" si="6"/>
         <v>7.0268567398823173E-2</v>
       </c>
-      <c r="AQ7" s="4">
+      <c r="AQ7" s="31">
         <f t="shared" si="7"/>
         <v>4.4109435255394444E-2</v>
       </c>
-      <c r="AR7" s="4">
+      <c r="AR7" s="31">
         <f t="shared" si="8"/>
         <v>2.4542858277658383E-2</v>
       </c>
-      <c r="AS7" s="4">
+      <c r="AS7" s="31">
         <f t="shared" si="9"/>
         <v>3.2226734705386846E-2</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="1">
         <v>0.4</v>
       </c>
@@ -1589,37 +5032,37 @@
       <c r="AL8" s="1">
         <v>0.8</v>
       </c>
-      <c r="AM8" s="4">
+      <c r="AM8" s="31">
         <f t="shared" si="3"/>
         <v>0.26765975256601204</v>
       </c>
-      <c r="AN8" s="4">
+      <c r="AN8" s="31">
         <f t="shared" si="4"/>
         <v>0.14391550053012644</v>
       </c>
-      <c r="AO8" s="4">
+      <c r="AO8" s="31">
         <f t="shared" si="5"/>
         <v>0.10316849259061445</v>
       </c>
-      <c r="AP8" s="4">
+      <c r="AP8" s="31">
         <f t="shared" si="6"/>
         <v>7.0296709668911966E-2</v>
       </c>
-      <c r="AQ8" s="4">
+      <c r="AQ8" s="31">
         <f t="shared" si="7"/>
         <v>4.4109435255394402E-2</v>
       </c>
-      <c r="AR8" s="4">
+      <c r="AR8" s="31">
         <f t="shared" si="8"/>
         <v>2.4543459632349128E-2</v>
       </c>
-      <c r="AS8" s="4">
+      <c r="AS8" s="31">
         <f t="shared" si="9"/>
         <v>3.2226734705386846E-2</v>
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="1">
         <v>0.6</v>
       </c>
@@ -1729,7 +5172,7 @@
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="1">
         <v>0.8</v>
       </c>
@@ -1848,7 +5291,7 @@
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A11" s="20">
+      <c r="A11" s="24">
         <v>50</v>
       </c>
       <c r="B11" s="1">
@@ -1960,7 +5403,7 @@
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="1">
         <v>0.4</v>
       </c>
@@ -2070,7 +5513,7 @@
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="1">
         <v>0.6</v>
       </c>
@@ -2180,7 +5623,7 @@
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="1">
         <v>0.8</v>
       </c>
@@ -2290,7 +5733,7 @@
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A15" s="20">
+      <c r="A15" s="24">
         <v>100</v>
       </c>
       <c r="B15" s="1">
@@ -2402,7 +5845,7 @@
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="1">
         <v>0.4</v>
       </c>
@@ -2512,7 +5955,7 @@
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="1">
         <v>0.6</v>
       </c>
@@ -2622,7 +6065,7 @@
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="1">
         <v>0.8</v>
       </c>
@@ -2732,7 +6175,7 @@
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A19" s="20">
+      <c r="A19" s="24">
         <v>200</v>
       </c>
       <c r="B19" s="1">
@@ -2844,7 +6287,7 @@
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="1">
         <v>0.4</v>
       </c>
@@ -2954,7 +6397,7 @@
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="1">
         <v>0.6</v>
       </c>
@@ -3064,7 +6507,7 @@
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="1">
         <v>0.8</v>
       </c>
@@ -3174,7 +6617,7 @@
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A23" s="20">
+      <c r="A23" s="24">
         <v>500</v>
       </c>
       <c r="B23" s="1">
@@ -3286,7 +6729,7 @@
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="1">
         <v>0.4</v>
       </c>
@@ -3396,7 +6839,7 @@
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="1">
         <v>0.6</v>
       </c>
@@ -3506,7 +6949,7 @@
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="1">
         <v>0.8</v>
       </c>
@@ -3616,7 +7059,7 @@
       </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A27" s="20">
+      <c r="A27" s="24">
         <v>1000</v>
       </c>
       <c r="B27" s="1">
@@ -3728,7 +7171,7 @@
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="1">
         <v>0.4</v>
       </c>
@@ -3838,7 +7281,7 @@
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="1">
         <v>0.6</v>
       </c>
@@ -3948,7 +7391,7 @@
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="1">
         <v>0.8</v>
       </c>
@@ -4075,7 +7518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27E3DA1D-5F8B-4E7E-95E8-6205032886F0}">
   <dimension ref="A1:AS30"/>
   <sheetViews>
@@ -4089,30 +7532,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="N1" s="22" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="N1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
       <c r="Y1" t="s">
         <v>3</v>
       </c>
@@ -4214,19 +7657,19 @@
       <c r="AI2" t="s">
         <v>4</v>
       </c>
-      <c r="AM2" s="22" t="str">
+      <c r="AM2" s="26" t="str">
         <f>"Comparativo - "&amp;A2</f>
         <v>Comparativo - z=0.75</v>
       </c>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="22"/>
-      <c r="AP2" s="22"/>
-      <c r="AQ2" s="22"/>
-      <c r="AR2" s="22"/>
-      <c r="AS2" s="22"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="26"/>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A3" s="20">
+      <c r="A3" s="24">
         <v>10</v>
       </c>
       <c r="B3" s="1">
@@ -4362,7 +7805,7 @@
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1">
         <v>0.4</v>
       </c>
@@ -4475,7 +7918,7 @@
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="1">
         <v>0.6</v>
       </c>
@@ -4616,7 +8059,7 @@
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="1">
         <v>0.8</v>
       </c>
@@ -4757,7 +8200,7 @@
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A7" s="20">
+      <c r="A7" s="24">
         <v>20</v>
       </c>
       <c r="B7" s="1">
@@ -4900,7 +8343,7 @@
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="1">
         <v>0.4</v>
       </c>
@@ -5041,7 +8484,7 @@
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="1">
         <v>0.6</v>
       </c>
@@ -5151,7 +8594,7 @@
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="1">
         <v>0.8</v>
       </c>
@@ -5270,7 +8713,7 @@
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A11" s="20">
+      <c r="A11" s="24">
         <v>50</v>
       </c>
       <c r="B11" s="1">
@@ -5382,7 +8825,7 @@
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="1">
         <v>0.4</v>
       </c>
@@ -5492,7 +8935,7 @@
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="1">
         <v>0.6</v>
       </c>
@@ -5602,7 +9045,7 @@
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="1">
         <v>0.8</v>
       </c>
@@ -5712,7 +9155,7 @@
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A15" s="20">
+      <c r="A15" s="24">
         <v>100</v>
       </c>
       <c r="B15" s="1">
@@ -5824,7 +9267,7 @@
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="1">
         <v>0.4</v>
       </c>
@@ -5934,7 +9377,7 @@
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="1">
         <v>0.6</v>
       </c>
@@ -6044,7 +9487,7 @@
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="1">
         <v>0.8</v>
       </c>
@@ -6154,7 +9597,7 @@
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A19" s="20">
+      <c r="A19" s="24">
         <v>200</v>
       </c>
       <c r="B19" s="1">
@@ -6266,7 +9709,7 @@
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="1">
         <v>0.4</v>
       </c>
@@ -6376,7 +9819,7 @@
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="1">
         <v>0.6</v>
       </c>
@@ -6486,7 +9929,7 @@
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="1">
         <v>0.8</v>
       </c>
@@ -6596,7 +10039,7 @@
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A23" s="20">
+      <c r="A23" s="24">
         <v>500</v>
       </c>
       <c r="B23" s="1">
@@ -6708,7 +10151,7 @@
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="1">
         <v>0.4</v>
       </c>
@@ -6818,7 +10261,7 @@
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="1">
         <v>0.6</v>
       </c>
@@ -6928,7 +10371,7 @@
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="1">
         <v>0.8</v>
       </c>
@@ -7038,7 +10481,7 @@
       </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A27" s="20">
+      <c r="A27" s="24">
         <v>1000</v>
       </c>
       <c r="B27" s="1">
@@ -7150,7 +10593,7 @@
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="1">
         <v>0.4</v>
       </c>
@@ -7260,7 +10703,7 @@
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="1">
         <v>0.6</v>
       </c>
@@ -7370,7 +10813,7 @@
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="1">
         <v>0.8</v>
       </c>
@@ -7481,23 +10924,23 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="N1:W1"/>
+    <mergeCell ref="AM2:AS2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="C1:L1"/>
-    <mergeCell ref="N1:W1"/>
-    <mergeCell ref="AM2:AS2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9738CC65-7F70-4397-904C-F135521D0552}">
   <dimension ref="A1:AS30"/>
   <sheetViews>
@@ -7511,30 +10954,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="N1" s="22" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="N1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
       <c r="Y1" t="s">
         <v>3</v>
       </c>
@@ -7636,19 +11079,19 @@
       <c r="AI2" t="s">
         <v>4</v>
       </c>
-      <c r="AM2" s="22" t="str">
+      <c r="AM2" s="26" t="str">
         <f>"Comparativo - "&amp;A2</f>
         <v>Comparativo - z=0.5</v>
       </c>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="22"/>
-      <c r="AP2" s="22"/>
-      <c r="AQ2" s="22"/>
-      <c r="AR2" s="22"/>
-      <c r="AS2" s="22"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="26"/>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A3" s="20">
+      <c r="A3" s="24">
         <v>10</v>
       </c>
       <c r="B3" s="1">
@@ -7784,7 +11227,7 @@
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1">
         <v>0.4</v>
       </c>
@@ -7897,7 +11340,7 @@
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="1">
         <v>0.6</v>
       </c>
@@ -8038,7 +11481,7 @@
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="1">
         <v>0.8</v>
       </c>
@@ -8179,7 +11622,7 @@
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A7" s="20">
+      <c r="A7" s="24">
         <v>20</v>
       </c>
       <c r="B7" s="1">
@@ -8322,7 +11765,7 @@
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="1">
         <v>0.4</v>
       </c>
@@ -8463,7 +11906,7 @@
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="1">
         <v>0.6</v>
       </c>
@@ -8573,7 +12016,7 @@
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="1">
         <v>0.8</v>
       </c>
@@ -8692,7 +12135,7 @@
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A11" s="20">
+      <c r="A11" s="24">
         <v>50</v>
       </c>
       <c r="B11" s="1">
@@ -8804,7 +12247,7 @@
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="1">
         <v>0.4</v>
       </c>
@@ -8914,7 +12357,7 @@
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="1">
         <v>0.6</v>
       </c>
@@ -9024,7 +12467,7 @@
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="1">
         <v>0.8</v>
       </c>
@@ -9134,7 +12577,7 @@
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A15" s="20">
+      <c r="A15" s="24">
         <v>100</v>
       </c>
       <c r="B15" s="1">
@@ -9246,7 +12689,7 @@
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="1">
         <v>0.4</v>
       </c>
@@ -9356,7 +12799,7 @@
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="1">
         <v>0.6</v>
       </c>
@@ -9466,7 +12909,7 @@
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="1">
         <v>0.8</v>
       </c>
@@ -9576,7 +13019,7 @@
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A19" s="20">
+      <c r="A19" s="24">
         <v>200</v>
       </c>
       <c r="B19" s="1">
@@ -9688,7 +13131,7 @@
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="1">
         <v>0.4</v>
       </c>
@@ -9798,7 +13241,7 @@
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="1">
         <v>0.6</v>
       </c>
@@ -9908,7 +13351,7 @@
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="1">
         <v>0.8</v>
       </c>
@@ -10018,7 +13461,7 @@
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A23" s="20">
+      <c r="A23" s="24">
         <v>500</v>
       </c>
       <c r="B23" s="1">
@@ -10130,7 +13573,7 @@
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="1">
         <v>0.4</v>
       </c>
@@ -10240,7 +13683,7 @@
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="1">
         <v>0.6</v>
       </c>
@@ -10350,7 +13793,7 @@
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="1">
         <v>0.8</v>
       </c>
@@ -10460,7 +13903,7 @@
       </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A27" s="20">
+      <c r="A27" s="24">
         <v>1000</v>
       </c>
       <c r="B27" s="1">
@@ -10572,7 +14015,7 @@
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="1">
         <v>0.4</v>
       </c>
@@ -10682,7 +14125,7 @@
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="1">
         <v>0.6</v>
       </c>
@@ -10792,7 +14235,7 @@
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="1">
         <v>0.8</v>
       </c>
@@ -10903,27 +14346,27 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="N1:W1"/>
+    <mergeCell ref="AM2:AS2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="C1:L1"/>
-    <mergeCell ref="N1:W1"/>
-    <mergeCell ref="AM2:AS2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848C7D16-9EFC-4866-9720-EDA0AFD3E1C0}">
   <dimension ref="A1:AS30"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AM15" sqref="AM15"/>
+    <sheetView topLeftCell="Q1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AJ8" sqref="AJ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10932,30 +14375,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="N1" s="24" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="N1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="24"/>
-      <c r="U1" s="24"/>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
       <c r="Y1" t="s">
         <v>3</v>
       </c>
@@ -11016,13 +14459,13 @@
       <c r="T2" s="18">
         <v>7</v>
       </c>
-      <c r="U2" s="28">
+      <c r="U2" s="22">
         <v>8</v>
       </c>
-      <c r="V2" s="28">
+      <c r="V2" s="22">
         <v>9</v>
       </c>
-      <c r="W2" s="28">
+      <c r="W2" s="22">
         <v>10</v>
       </c>
       <c r="Y2" s="18">
@@ -11058,19 +14501,19 @@
       <c r="AI2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="AM2" s="22" t="str">
+      <c r="AM2" s="26" t="str">
         <f>"Comparativo - "&amp;A2</f>
         <v>Comparativo - z=0.9</v>
       </c>
-      <c r="AN2" s="22"/>
-      <c r="AO2" s="22"/>
-      <c r="AP2" s="22"/>
-      <c r="AQ2" s="22"/>
-      <c r="AR2" s="22"/>
-      <c r="AS2" s="22"/>
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26"/>
+      <c r="AR2" s="26"/>
+      <c r="AS2" s="26"/>
     </row>
     <row r="3" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A3" s="20">
+      <c r="A3" s="24">
         <v>10</v>
       </c>
       <c r="B3" s="1">
@@ -11127,13 +14570,13 @@
       <c r="T3" s="12">
         <v>2269</v>
       </c>
-      <c r="U3" s="29">
+      <c r="U3" s="23">
         <v>1774</v>
       </c>
-      <c r="V3" s="29">
+      <c r="V3" s="23">
         <v>1792</v>
       </c>
-      <c r="W3" s="29">
+      <c r="W3" s="23">
         <v>1934</v>
       </c>
       <c r="Y3" s="13">
@@ -11176,7 +14619,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI3" s="27">
+      <c r="AI3" s="21">
         <f>AVERAGE(Y3:AH3)</f>
         <v>-1.3121089266513487E-3</v>
       </c>
@@ -11206,7 +14649,7 @@
       </c>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1">
         <v>0.4</v>
       </c>
@@ -11261,13 +14704,13 @@
       <c r="T4" s="12">
         <v>1374</v>
       </c>
-      <c r="U4" s="29">
+      <c r="U4" s="23">
         <v>1104</v>
       </c>
-      <c r="V4" s="29">
+      <c r="V4" s="23">
         <v>876</v>
       </c>
-      <c r="W4" s="29">
+      <c r="W4" s="23">
         <v>1173</v>
       </c>
       <c r="Y4" s="13">
@@ -11310,7 +14753,7 @@
         <f t="shared" si="0"/>
         <v>9.4629156010230184E-2</v>
       </c>
-      <c r="AI4" s="27">
+      <c r="AI4" s="21">
         <f t="shared" ref="AI4:AI30" si="2">AVERAGE(Y4:AH4)</f>
         <v>0.15071081405044667</v>
       </c>
@@ -11319,7 +14762,7 @@
       </c>
     </row>
     <row r="5" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="1">
         <v>0.6</v>
       </c>
@@ -11374,13 +14817,13 @@
       <c r="T5" s="12">
         <v>1102</v>
       </c>
-      <c r="U5" s="29">
+      <c r="U5" s="23">
         <v>610</v>
       </c>
-      <c r="V5" s="29">
+      <c r="V5" s="23">
         <v>582</v>
       </c>
-      <c r="W5" s="29">
+      <c r="W5" s="23">
         <v>711</v>
       </c>
       <c r="Y5" s="13">
@@ -11423,7 +14866,7 @@
         <f t="shared" si="0"/>
         <v>0.29254571026722925</v>
       </c>
-      <c r="AI5" s="27">
+      <c r="AI5" s="21">
         <f t="shared" si="2"/>
         <v>0.22874656715554517</v>
       </c>
@@ -11460,7 +14903,7 @@
       </c>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="1">
         <v>0.8</v>
       </c>
@@ -11515,13 +14958,13 @@
       <c r="T6" s="12">
         <v>1083</v>
       </c>
-      <c r="U6" s="29">
+      <c r="U6" s="23">
         <v>540</v>
       </c>
-      <c r="V6" s="29">
+      <c r="V6" s="23">
         <v>554</v>
       </c>
-      <c r="W6" s="29">
+      <c r="W6" s="23">
         <v>671</v>
       </c>
       <c r="Y6" s="13">
@@ -11564,7 +15007,7 @@
         <f t="shared" si="0"/>
         <v>0.36959761549925518</v>
       </c>
-      <c r="AI6" s="27">
+      <c r="AI6" s="21">
         <f t="shared" si="2"/>
         <v>0.26765975256601204</v>
       </c>
@@ -11601,7 +15044,7 @@
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A7" s="20">
+      <c r="A7" s="24">
         <v>20</v>
       </c>
       <c r="B7" s="1">
@@ -11658,13 +15101,13 @@
       <c r="T7" s="12">
         <v>11101</v>
       </c>
-      <c r="U7" s="29">
+      <c r="U7" s="23">
         <v>4203</v>
       </c>
-      <c r="V7" s="29">
+      <c r="V7" s="23">
         <v>3530</v>
       </c>
-      <c r="W7" s="29">
+      <c r="W7" s="23">
         <v>5545</v>
       </c>
       <c r="Y7" s="13">
@@ -11707,7 +15150,7 @@
         <f t="shared" si="0"/>
         <v>-7.6645626690712357E-2</v>
       </c>
-      <c r="AI7" s="27">
+      <c r="AI7" s="21">
         <f t="shared" si="2"/>
         <v>2.231326796520235E-2</v>
       </c>
@@ -11744,7 +15187,7 @@
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="1">
         <v>0.4</v>
       </c>
@@ -11799,13 +15242,13 @@
       <c r="T8" s="12">
         <v>6357</v>
       </c>
-      <c r="U8" s="29">
+      <c r="U8" s="23">
         <v>2151</v>
       </c>
-      <c r="V8" s="29">
+      <c r="V8" s="23">
         <v>2097</v>
       </c>
-      <c r="W8" s="29">
+      <c r="W8" s="23">
         <v>3192</v>
       </c>
       <c r="Y8" s="13">
@@ -11848,7 +15291,7 @@
         <f t="shared" si="0"/>
         <v>7.5187969924812026E-3</v>
       </c>
-      <c r="AI8" s="27">
+      <c r="AI8" s="21">
         <f t="shared" si="2"/>
         <v>5.9059020038549528E-2</v>
       </c>
@@ -11885,7 +15328,7 @@
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="1">
         <v>0.6</v>
       </c>
@@ -11940,13 +15383,13 @@
       <c r="T9" s="12">
         <v>4175</v>
       </c>
-      <c r="U9" s="29">
+      <c r="U9" s="23">
         <v>1638</v>
       </c>
-      <c r="V9" s="29">
+      <c r="V9" s="23">
         <v>1992</v>
       </c>
-      <c r="W9" s="29">
+      <c r="W9" s="23">
         <v>2116</v>
       </c>
       <c r="Y9" s="13">
@@ -11989,13 +15432,13 @@
         <f t="shared" si="0"/>
         <v>0.10160680529300567</v>
       </c>
-      <c r="AI9" s="27">
+      <c r="AI9" s="21">
         <f t="shared" si="2"/>
         <v>0.10643021162581942</v>
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="1">
         <v>0.8</v>
       </c>
@@ -12050,13 +15493,13 @@
       <c r="T10" s="12">
         <v>3900</v>
       </c>
-      <c r="U10" s="29">
+      <c r="U10" s="23">
         <v>1638</v>
       </c>
-      <c r="V10" s="29">
+      <c r="V10" s="23">
         <v>1992</v>
       </c>
-      <c r="W10" s="29">
+      <c r="W10" s="23">
         <v>1995</v>
       </c>
       <c r="Y10" s="13">
@@ -12099,7 +15542,7 @@
         <f t="shared" si="0"/>
         <v>0.16842105263157894</v>
       </c>
-      <c r="AI10" s="27">
+      <c r="AI10" s="21">
         <f t="shared" si="2"/>
         <v>0.14391550053012644</v>
       </c>
@@ -12114,7 +15557,7 @@
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A11" s="20">
+      <c r="A11" s="24">
         <v>50</v>
       </c>
       <c r="B11" s="1">
@@ -12171,13 +15614,13 @@
       <c r="T11" s="12">
         <v>44277</v>
       </c>
-      <c r="U11" s="29">
+      <c r="U11" s="23">
         <v>46065</v>
       </c>
-      <c r="V11" s="29">
+      <c r="V11" s="23">
         <v>36397</v>
       </c>
-      <c r="W11" s="29">
+      <c r="W11" s="23">
         <v>35797</v>
       </c>
       <c r="Y11" s="13">
@@ -12220,13 +15663,13 @@
         <f t="shared" si="0"/>
         <v>-6.4474676648881193E-2</v>
       </c>
-      <c r="AI11" s="27">
+      <c r="AI11" s="21">
         <f t="shared" si="2"/>
         <v>-3.4597782587582518E-2</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="1">
         <v>0.4</v>
       </c>
@@ -12281,13 +15724,13 @@
       <c r="T12" s="12">
         <v>23883</v>
       </c>
-      <c r="U12" s="29">
+      <c r="U12" s="23">
         <v>25402</v>
       </c>
-      <c r="V12" s="29">
+      <c r="V12" s="23">
         <v>21929</v>
       </c>
-      <c r="W12" s="29">
+      <c r="W12" s="23">
         <v>20048</v>
       </c>
       <c r="Y12" s="13">
@@ -12330,13 +15773,13 @@
         <f t="shared" si="0"/>
         <v>-2.1498403830806066E-2</v>
       </c>
-      <c r="AI12" s="27">
+      <c r="AI12" s="21">
         <f t="shared" si="2"/>
         <v>-1.2509589072987933E-2</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="1">
         <v>0.6</v>
       </c>
@@ -12391,13 +15834,13 @@
       <c r="T13" s="12">
         <v>17715</v>
       </c>
-      <c r="U13" s="29">
+      <c r="U13" s="23">
         <v>21367</v>
       </c>
-      <c r="V13" s="29">
+      <c r="V13" s="23">
         <v>14298</v>
       </c>
-      <c r="W13" s="29">
+      <c r="W13" s="23">
         <v>14377</v>
       </c>
       <c r="Y13" s="13">
@@ -12440,13 +15883,13 @@
         <f t="shared" si="0"/>
         <v>8.5692425401683245E-2</v>
       </c>
-      <c r="AI13" s="27">
+      <c r="AI13" s="21">
         <f t="shared" si="2"/>
         <v>9.8119985234339971E-2</v>
       </c>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="1">
         <v>0.8</v>
       </c>
@@ -12501,13 +15944,13 @@
       <c r="T14" s="12">
         <v>17715</v>
       </c>
-      <c r="U14" s="29">
+      <c r="U14" s="23">
         <v>21367</v>
       </c>
-      <c r="V14" s="29">
+      <c r="V14" s="23">
         <v>13952</v>
       </c>
-      <c r="W14" s="29">
+      <c r="W14" s="23">
         <v>14377</v>
       </c>
       <c r="Y14" s="13">
@@ -12550,13 +15993,13 @@
         <f t="shared" si="0"/>
         <v>8.5692425401683245E-2</v>
       </c>
-      <c r="AI14" s="27">
+      <c r="AI14" s="21">
         <f t="shared" si="2"/>
         <v>0.10316849259061445</v>
       </c>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A15" s="20">
+      <c r="A15" s="24">
         <v>100</v>
       </c>
       <c r="B15" s="1">
@@ -12613,13 +16056,13 @@
       <c r="T15" s="12">
         <v>141613</v>
       </c>
-      <c r="U15" s="29">
+      <c r="U15" s="23">
         <v>168086</v>
       </c>
-      <c r="V15" s="29">
+      <c r="V15" s="23">
         <v>125153</v>
       </c>
-      <c r="W15" s="29">
+      <c r="W15" s="23">
         <v>124446</v>
       </c>
       <c r="Y15" s="13">
@@ -12662,13 +16105,13 @@
         <f t="shared" si="0"/>
         <v>-3.3243334458319271E-2</v>
       </c>
-      <c r="AI15" s="27">
+      <c r="AI15" s="21">
         <f t="shared" si="2"/>
         <v>-4.6219594023589584E-2</v>
       </c>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="1">
         <v>0.4</v>
       </c>
@@ -12723,13 +16166,13 @@
       <c r="T16" s="12">
         <v>79854</v>
       </c>
-      <c r="U16" s="29">
+      <c r="U16" s="23">
         <v>95361</v>
       </c>
-      <c r="V16" s="29">
+      <c r="V16" s="23">
         <v>73605</v>
       </c>
-      <c r="W16" s="29">
+      <c r="W16" s="23">
         <v>72399</v>
       </c>
       <c r="Y16" s="13">
@@ -12772,13 +16215,13 @@
         <f t="shared" si="0"/>
         <v>2.4461663835135844E-2</v>
       </c>
-      <c r="AI16" s="27">
+      <c r="AI16" s="21">
         <f t="shared" si="2"/>
         <v>-2.435453025739983E-2</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="1">
         <v>0.6</v>
       </c>
@@ -12833,13 +16276,13 @@
       <c r="T17" s="12">
         <v>62213</v>
       </c>
-      <c r="U17" s="29">
+      <c r="U17" s="23">
         <v>80844</v>
       </c>
-      <c r="V17" s="29">
+      <c r="V17" s="23">
         <v>58771</v>
       </c>
-      <c r="W17" s="29">
+      <c r="W17" s="23">
         <v>61419</v>
       </c>
       <c r="Y17" s="13">
@@ -12882,13 +16325,13 @@
         <f t="shared" si="0"/>
         <v>3.0072127517543432E-2</v>
       </c>
-      <c r="AI17" s="27">
+      <c r="AI17" s="21">
         <f t="shared" si="2"/>
         <v>7.0268567398823173E-2</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="1">
         <v>0.8</v>
       </c>
@@ -12943,13 +16386,13 @@
       <c r="T18" s="12">
         <v>62213</v>
       </c>
-      <c r="U18" s="29">
+      <c r="U18" s="23">
         <v>80844</v>
       </c>
-      <c r="V18" s="29">
+      <c r="V18" s="23">
         <v>58771</v>
       </c>
-      <c r="W18" s="29">
+      <c r="W18" s="23">
         <v>61419</v>
       </c>
       <c r="Y18" s="13">
@@ -12992,13 +16435,13 @@
         <f t="shared" si="0"/>
         <v>3.0072127517543432E-2</v>
       </c>
-      <c r="AI18" s="27">
+      <c r="AI18" s="21">
         <f t="shared" si="2"/>
         <v>7.0296709668911966E-2</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A19" s="20">
+      <c r="A19" s="24">
         <v>200</v>
       </c>
       <c r="B19" s="1">
@@ -13055,13 +16498,13 @@
       <c r="T19" s="12">
         <v>479651</v>
       </c>
-      <c r="U19" s="29">
+      <c r="U19" s="23">
         <v>530896</v>
       </c>
-      <c r="V19" s="29">
+      <c r="V19" s="23">
         <v>575353</v>
       </c>
-      <c r="W19" s="29">
+      <c r="W19" s="23">
         <v>572866</v>
       </c>
       <c r="Y19" s="13">
@@ -13104,13 +16547,13 @@
         <f t="shared" si="1"/>
         <v>-5.2609161653859718E-2</v>
       </c>
-      <c r="AI19" s="27">
+      <c r="AI19" s="21">
         <f t="shared" si="2"/>
         <v>-4.8127138517817331E-2</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="1">
         <v>0.4</v>
       </c>
@@ -13165,13 +16608,13 @@
       <c r="T20" s="12">
         <v>279576</v>
       </c>
-      <c r="U20" s="29">
+      <c r="U20" s="23">
         <v>288746</v>
       </c>
-      <c r="V20" s="29">
+      <c r="V20" s="23">
         <v>331107</v>
       </c>
-      <c r="W20" s="29">
+      <c r="W20" s="23">
         <v>332808</v>
       </c>
       <c r="Y20" s="13">
@@ -13214,13 +16657,13 @@
         <f t="shared" si="1"/>
         <v>-1.7003797985625346E-2</v>
       </c>
-      <c r="AI20" s="27">
+      <c r="AI20" s="21">
         <f t="shared" si="2"/>
         <v>-1.9114375483981809E-2</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="1">
         <v>0.6</v>
       </c>
@@ -13275,13 +16718,13 @@
       <c r="T21" s="12">
         <v>247555</v>
       </c>
-      <c r="U21" s="29">
+      <c r="U21" s="23">
         <v>225572</v>
       </c>
-      <c r="V21" s="29">
+      <c r="V21" s="23">
         <v>255029</v>
       </c>
-      <c r="W21" s="29">
+      <c r="W21" s="23">
         <v>269236</v>
       </c>
       <c r="Y21" s="13">
@@ -13324,13 +16767,13 @@
         <f t="shared" si="1"/>
         <v>7.9343029906847523E-2</v>
       </c>
-      <c r="AI21" s="27">
+      <c r="AI21" s="21">
         <f t="shared" si="2"/>
         <v>4.4109435255394444E-2</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="1">
         <v>0.8</v>
       </c>
@@ -13385,13 +16828,13 @@
       <c r="T22" s="12">
         <v>247555</v>
       </c>
-      <c r="U22" s="29">
+      <c r="U22" s="23">
         <v>225572</v>
       </c>
-      <c r="V22" s="29">
+      <c r="V22" s="23">
         <v>255029</v>
       </c>
-      <c r="W22" s="29">
+      <c r="W22" s="23">
         <v>269236</v>
       </c>
       <c r="Y22" s="13">
@@ -13434,13 +16877,13 @@
         <f t="shared" si="1"/>
         <v>7.9343029906847523E-2</v>
       </c>
-      <c r="AI22" s="27">
+      <c r="AI22" s="21">
         <f t="shared" si="2"/>
         <v>4.4109435255394402E-2</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A23" s="20">
+      <c r="A23" s="24">
         <v>500</v>
       </c>
       <c r="B23" s="1">
@@ -13497,13 +16940,13 @@
       <c r="T23" s="12">
         <v>3381166</v>
       </c>
-      <c r="U23" s="29">
+      <c r="U23" s="23">
         <v>3376678</v>
       </c>
-      <c r="V23" s="29">
+      <c r="V23" s="23">
         <v>3617807</v>
       </c>
-      <c r="W23" s="29">
+      <c r="W23" s="23">
         <v>3315019</v>
       </c>
       <c r="Y23" s="13">
@@ -13546,13 +16989,13 @@
         <f t="shared" si="1"/>
         <v>-4.622416945423239E-2</v>
       </c>
-      <c r="AI23" s="27">
+      <c r="AI23" s="21">
         <f t="shared" si="2"/>
         <v>-5.2559816947965646E-2</v>
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="1">
         <v>0.4</v>
       </c>
@@ -13607,13 +17050,13 @@
       <c r="T24" s="12">
         <v>1971176</v>
       </c>
-      <c r="U24" s="29">
+      <c r="U24" s="23">
         <v>1924191</v>
       </c>
-      <c r="V24" s="29">
+      <c r="V24" s="23">
         <v>2065647</v>
       </c>
-      <c r="W24" s="29">
+      <c r="W24" s="23">
         <v>1928579</v>
       </c>
       <c r="Y24" s="13">
@@ -13656,13 +17099,13 @@
         <f t="shared" si="1"/>
         <v>-2.8737739029617144E-2</v>
       </c>
-      <c r="AI24" s="27">
+      <c r="AI24" s="21">
         <f t="shared" si="2"/>
         <v>-1.9367035995304004E-2</v>
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="1">
         <v>0.6</v>
       </c>
@@ -13717,13 +17160,13 @@
       <c r="T25" s="12">
         <v>1634912</v>
       </c>
-      <c r="U25" s="29">
+      <c r="U25" s="23">
         <v>1542090</v>
       </c>
-      <c r="V25" s="29">
+      <c r="V25" s="23">
         <v>1684055</v>
       </c>
-      <c r="W25" s="29">
+      <c r="W25" s="23">
         <v>1520515</v>
       </c>
       <c r="Y25" s="13">
@@ -13766,13 +17209,13 @@
         <f t="shared" si="1"/>
         <v>2.1925466042755252E-2</v>
       </c>
-      <c r="AI25" s="27">
+      <c r="AI25" s="21">
         <f t="shared" si="2"/>
         <v>2.4542858277658383E-2</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="1">
         <v>0.8</v>
       </c>
@@ -13827,13 +17270,13 @@
       <c r="T26" s="12">
         <v>1634912</v>
       </c>
-      <c r="U26" s="29">
+      <c r="U26" s="23">
         <v>1542090</v>
       </c>
-      <c r="V26" s="29">
+      <c r="V26" s="23">
         <v>1684055</v>
       </c>
-      <c r="W26" s="29">
+      <c r="W26" s="23">
         <v>1520515</v>
       </c>
       <c r="Y26" s="13">
@@ -13876,13 +17319,13 @@
         <f t="shared" si="1"/>
         <v>2.1925466042755252E-2</v>
       </c>
-      <c r="AI26" s="27">
+      <c r="AI26" s="21">
         <f t="shared" si="2"/>
         <v>2.4543459632349128E-2</v>
       </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A27" s="20">
+      <c r="A27" s="24">
         <v>1000</v>
       </c>
       <c r="B27" s="1">
@@ -13939,13 +17382,13 @@
       <c r="T27" s="12">
         <v>14160773</v>
       </c>
-      <c r="U27" s="29">
+      <c r="U27" s="23">
         <v>13314723</v>
       </c>
-      <c r="V27" s="29">
+      <c r="V27" s="23">
         <v>12433821</v>
       </c>
-      <c r="W27" s="29">
+      <c r="W27" s="23">
         <v>13395234</v>
       </c>
       <c r="Y27" s="13">
@@ -13988,13 +17431,13 @@
         <f t="shared" si="1"/>
         <v>-6.3007932522865975E-2</v>
       </c>
-      <c r="AI27" s="27">
+      <c r="AI27" s="21">
         <f t="shared" si="2"/>
         <v>-5.8403039277562241E-2</v>
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="1">
         <v>0.4</v>
       </c>
@@ -14049,13 +17492,13 @@
       <c r="T28" s="12">
         <v>8426024</v>
       </c>
-      <c r="U28" s="29">
+      <c r="U28" s="23">
         <v>7508507</v>
       </c>
-      <c r="V28" s="29">
+      <c r="V28" s="23">
         <v>7299271</v>
       </c>
-      <c r="W28" s="29">
+      <c r="W28" s="23">
         <v>7617658</v>
       </c>
       <c r="Y28" s="13">
@@ -14098,13 +17541,13 @@
         <f t="shared" si="1"/>
         <v>-2.932462969589866E-2</v>
       </c>
-      <c r="AI28" s="27">
+      <c r="AI28" s="21">
         <f t="shared" si="2"/>
         <v>-2.9714247097989265E-2</v>
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="1">
         <v>0.6</v>
       </c>
@@ -14159,13 +17602,13 @@
       <c r="T29" s="12">
         <v>6575879</v>
       </c>
-      <c r="U29" s="29">
+      <c r="U29" s="23">
         <v>6069658</v>
       </c>
-      <c r="V29" s="29">
+      <c r="V29" s="23">
         <v>6188416</v>
       </c>
-      <c r="W29" s="29">
+      <c r="W29" s="23">
         <v>6147295</v>
       </c>
       <c r="Y29" s="13">
@@ -14208,13 +17651,13 @@
         <f t="shared" si="1"/>
         <v>3.1408448756729587E-2</v>
       </c>
-      <c r="AI29" s="27">
+      <c r="AI29" s="21">
         <f t="shared" si="2"/>
         <v>3.2226734705386846E-2</v>
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="1">
         <v>0.8</v>
       </c>
@@ -14269,13 +17712,13 @@
       <c r="T30" s="12">
         <v>6575879</v>
       </c>
-      <c r="U30" s="29">
+      <c r="U30" s="23">
         <v>6069658</v>
       </c>
-      <c r="V30" s="29">
+      <c r="V30" s="23">
         <v>6188416</v>
       </c>
-      <c r="W30" s="29">
+      <c r="W30" s="23">
         <v>6147295</v>
       </c>
       <c r="Y30" s="13">
@@ -14318,115 +17761,115 @@
         <f t="shared" si="1"/>
         <v>3.1408448756729587E-2</v>
       </c>
-      <c r="AI30" s="27">
+      <c r="AI30" s="21">
         <f t="shared" si="2"/>
         <v>3.2226734705386846E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="N1:W1"/>
+    <mergeCell ref="AM2:AS2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="C1:L1"/>
-    <mergeCell ref="N1:W1"/>
-    <mergeCell ref="AM2:AS2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C947877A-AB40-4C65-8DA4-6A96DFC70BB1}">
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:S35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" topLeftCell="E19" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26:S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="K1" s="25" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="K1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="24"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="28">
         <v>10</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="28">
         <v>20</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="28">
         <v>50</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="28">
         <v>100</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="28">
         <v>200</v>
       </c>
-      <c r="G2" s="23">
+      <c r="G2" s="28">
         <v>500</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="28">
         <v>1000</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="28" t="s">
         <v>16</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="26">
+      <c r="L2" s="30">
         <v>10</v>
       </c>
-      <c r="M2" s="23">
+      <c r="M2" s="28">
         <v>20</v>
       </c>
-      <c r="N2" s="23">
+      <c r="N2" s="28">
         <v>50</v>
       </c>
-      <c r="O2" s="23">
+      <c r="O2" s="28">
         <v>100</v>
       </c>
-      <c r="P2" s="23">
+      <c r="P2" s="28">
         <v>200</v>
       </c>
-      <c r="Q2" s="23">
+      <c r="Q2" s="28">
         <v>500</v>
       </c>
-      <c r="R2" s="23">
+      <c r="R2" s="28">
         <v>1000</v>
       </c>
-      <c r="S2" s="23" t="s">
+      <c r="S2" s="28" t="s">
         <v>16</v>
       </c>
     </row>
@@ -14434,25 +17877,25 @@
       <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
       <c r="K3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="26"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
@@ -14835,82 +18278,82 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="K14" s="24" t="s">
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="K14" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="23">
+      <c r="B15" s="28">
         <v>10</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="28">
         <v>20</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="28">
         <v>50</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="28">
         <v>100</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="28">
         <v>200</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="28">
         <v>500</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="28">
         <v>1000</v>
       </c>
-      <c r="I15" s="23" t="s">
+      <c r="I15" s="28" t="s">
         <v>16</v>
       </c>
       <c r="K15" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L15" s="28">
         <v>10</v>
       </c>
-      <c r="M15" s="23">
+      <c r="M15" s="28">
         <v>20</v>
       </c>
-      <c r="N15" s="23">
+      <c r="N15" s="28">
         <v>50</v>
       </c>
-      <c r="O15" s="23">
+      <c r="O15" s="28">
         <v>100</v>
       </c>
-      <c r="P15" s="23">
+      <c r="P15" s="28">
         <v>200</v>
       </c>
-      <c r="Q15" s="23">
+      <c r="Q15" s="28">
         <v>500</v>
       </c>
-      <c r="R15" s="23">
+      <c r="R15" s="28">
         <v>1000</v>
       </c>
-      <c r="S15" s="23" t="s">
+      <c r="S15" s="28" t="s">
         <v>16</v>
       </c>
     </row>
@@ -14918,25 +18361,25 @@
       <c r="A16" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
       <c r="K16" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
@@ -15318,8 +18761,530 @@
         <v>8</v>
       </c>
     </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="K26" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="27"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="28">
+        <v>10</v>
+      </c>
+      <c r="C27" s="28">
+        <v>20</v>
+      </c>
+      <c r="D27" s="28">
+        <v>50</v>
+      </c>
+      <c r="E27" s="28">
+        <v>100</v>
+      </c>
+      <c r="F27" s="28">
+        <v>200</v>
+      </c>
+      <c r="G27" s="28">
+        <v>500</v>
+      </c>
+      <c r="H27" s="28">
+        <v>1000</v>
+      </c>
+      <c r="I27" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="L27" s="28">
+        <v>10</v>
+      </c>
+      <c r="M27" s="28">
+        <v>20</v>
+      </c>
+      <c r="N27" s="28">
+        <v>50</v>
+      </c>
+      <c r="O27" s="28">
+        <v>100</v>
+      </c>
+      <c r="P27" s="28">
+        <v>200</v>
+      </c>
+      <c r="Q27" s="28">
+        <v>500</v>
+      </c>
+      <c r="R27" s="28">
+        <v>1000</v>
+      </c>
+      <c r="S27" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="K28" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="B29" s="17">
+        <f>'z=0.25'!AM5</f>
+        <v>6.4928992487591597E-2</v>
+      </c>
+      <c r="C29" s="17">
+        <f>'z=0.25'!AN5</f>
+        <v>2.1940293264122002E-2</v>
+      </c>
+      <c r="D29" s="17">
+        <f>'z=0.25'!AO5</f>
+        <v>2.0961760329960003E-2</v>
+      </c>
+      <c r="E29" s="17">
+        <f>'z=0.25'!AP5</f>
+        <v>3.1600184186590897E-3</v>
+      </c>
+      <c r="F29" s="17">
+        <f>'z=0.25'!AQ5</f>
+        <v>6.4112980250270717E-3</v>
+      </c>
+      <c r="G29" s="17">
+        <f>'z=0.25'!AR5</f>
+        <v>2.4527572816153208E-3</v>
+      </c>
+      <c r="H29" s="17">
+        <f>'z=0.25'!AS5</f>
+        <v>4.2271978422943213E-3</v>
+      </c>
+      <c r="I29" s="19">
+        <f>AVERAGE(B29:H29)</f>
+        <v>1.7726045378467056E-2</v>
+      </c>
+      <c r="K29" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="L29" s="17">
+        <f>MIN(B29,B17,B4,L4,L17)</f>
+        <v>-1.3121089266513487E-3</v>
+      </c>
+      <c r="M29" s="17">
+        <f t="shared" ref="M29:R29" si="23">MIN(C29,C17,C4,M4,M17)</f>
+        <v>1.9244373973514212E-2</v>
+      </c>
+      <c r="N29" s="17">
+        <f t="shared" si="23"/>
+        <v>-3.4597782587582518E-2</v>
+      </c>
+      <c r="O29" s="17">
+        <f t="shared" si="23"/>
+        <v>-4.6356871655369357E-2</v>
+      </c>
+      <c r="P29" s="17">
+        <f t="shared" si="23"/>
+        <v>-4.8127138517817331E-2</v>
+      </c>
+      <c r="Q29" s="17">
+        <f t="shared" si="23"/>
+        <v>-5.2559816947965646E-2</v>
+      </c>
+      <c r="R29" s="17">
+        <f t="shared" si="23"/>
+        <v>-5.8403039277562241E-2</v>
+      </c>
+      <c r="S29" s="19">
+        <f>AVERAGE(L29:R29)</f>
+        <v>-3.1730340562776314E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="B30" s="17">
+        <f>'z=0.25'!AM6</f>
+        <v>0.11813687703245623</v>
+      </c>
+      <c r="C30" s="17">
+        <f>'z=0.25'!AN6</f>
+        <v>4.1353825736237373E-2</v>
+      </c>
+      <c r="D30" s="17">
+        <f>'z=0.25'!AO6</f>
+        <v>1.9984354203012342E-2</v>
+      </c>
+      <c r="E30" s="17">
+        <f>'z=0.25'!AP6</f>
+        <v>1.1760148602085398E-3</v>
+      </c>
+      <c r="F30" s="17">
+        <f>'z=0.25'!AQ6</f>
+        <v>2.2066519417234601E-3</v>
+      </c>
+      <c r="G30" s="17">
+        <f>'z=0.25'!AR6</f>
+        <v>1.9850003296093691E-3</v>
+      </c>
+      <c r="H30" s="17">
+        <f>'z=0.25'!AS6</f>
+        <v>1.880784831631601E-3</v>
+      </c>
+      <c r="I30" s="19">
+        <f t="shared" ref="I30:I32" si="24">AVERAGE(B30:H30)</f>
+        <v>2.6674786990696985E-2</v>
+      </c>
+      <c r="K30" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="L30" s="17">
+        <f t="shared" ref="L30:L32" si="25">MIN(B30,B18,B5,L5,L18)</f>
+        <v>0.11813687703245623</v>
+      </c>
+      <c r="M30" s="17">
+        <f t="shared" ref="M30:M32" si="26">MIN(C30,C18,C5,M5,M18)</f>
+        <v>3.7023860769797551E-2</v>
+      </c>
+      <c r="N30" s="17">
+        <f t="shared" ref="N30:N32" si="27">MIN(D30,D18,D5,N5,N18)</f>
+        <v>-1.2777254949218525E-2</v>
+      </c>
+      <c r="O30" s="17">
+        <f t="shared" ref="O30:O32" si="28">MIN(E30,E18,E5,O5,O18)</f>
+        <v>-2.8644396078710894E-2</v>
+      </c>
+      <c r="P30" s="17">
+        <f t="shared" ref="P30:P32" si="29">MIN(F30,F18,F5,P5,P18)</f>
+        <v>-2.3037235221967132E-2</v>
+      </c>
+      <c r="Q30" s="17">
+        <f t="shared" ref="Q30:Q32" si="30">MIN(G30,G18,G5,Q5,Q18)</f>
+        <v>-2.0479472902192888E-2</v>
+      </c>
+      <c r="R30" s="17">
+        <f t="shared" ref="R30:R32" si="31">MIN(H30,H18,H5,R5,R18)</f>
+        <v>-2.9714247097989265E-2</v>
+      </c>
+      <c r="S30" s="19">
+        <f t="shared" ref="S30:S32" si="32">AVERAGE(L30:R30)</f>
+        <v>5.7868759360250122E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="B31" s="17">
+        <f>'z=0.25'!AM7</f>
+        <v>7.1609036435304807E-2</v>
+      </c>
+      <c r="C31" s="17">
+        <f>'z=0.25'!AN7</f>
+        <v>1.8257115197187215E-2</v>
+      </c>
+      <c r="D31" s="17">
+        <f>'z=0.25'!AO7</f>
+        <v>2.034753475844165E-2</v>
+      </c>
+      <c r="E31" s="17">
+        <f>'z=0.25'!AP7</f>
+        <v>2.0689924471481019E-2</v>
+      </c>
+      <c r="F31" s="17">
+        <f>'z=0.25'!AQ7</f>
+        <v>2.9106303520440656E-2</v>
+      </c>
+      <c r="G31" s="17">
+        <f>'z=0.25'!AR7</f>
+        <v>3.3947842870143623E-2</v>
+      </c>
+      <c r="H31" s="17">
+        <f>'z=0.25'!AS7</f>
+        <v>3.1351865383261138E-2</v>
+      </c>
+      <c r="I31" s="19">
+        <f t="shared" si="24"/>
+        <v>3.2187088948037165E-2</v>
+      </c>
+      <c r="K31" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="L31" s="17">
+        <f t="shared" si="25"/>
+        <v>7.1609036435304807E-2</v>
+      </c>
+      <c r="M31" s="17">
+        <f t="shared" si="26"/>
+        <v>1.8257115197187215E-2</v>
+      </c>
+      <c r="N31" s="17">
+        <f t="shared" si="27"/>
+        <v>1.7669706335910328E-2</v>
+      </c>
+      <c r="O31" s="17">
+        <f t="shared" si="28"/>
+        <v>1.540314993023425E-2</v>
+      </c>
+      <c r="P31" s="17">
+        <f t="shared" si="29"/>
+        <v>6.8470236159044792E-3</v>
+      </c>
+      <c r="Q31" s="17">
+        <f t="shared" si="30"/>
+        <v>4.9985269105205874E-3</v>
+      </c>
+      <c r="R31" s="17">
+        <f t="shared" si="31"/>
+        <v>2.7893262062992519E-3</v>
+      </c>
+      <c r="S31" s="19">
+        <f t="shared" si="32"/>
+        <v>1.9653412090194416E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="B32" s="17">
+        <f>'z=0.25'!AM8</f>
+        <v>6.4919233012855668E-2</v>
+      </c>
+      <c r="C32" s="17">
+        <f>'z=0.25'!AN8</f>
+        <v>4.0546390161069625E-2</v>
+      </c>
+      <c r="D32" s="17">
+        <f>'z=0.25'!AO8</f>
+        <v>4.935779947407002E-2</v>
+      </c>
+      <c r="E32" s="17">
+        <f>'z=0.25'!AP8</f>
+        <v>5.6466409779185031E-2</v>
+      </c>
+      <c r="F32" s="17">
+        <f>'z=0.25'!AQ8</f>
+        <v>5.0827628715631679E-2</v>
+      </c>
+      <c r="G32" s="17">
+        <f>'z=0.25'!AR8</f>
+        <v>4.7707183527753917E-2</v>
+      </c>
+      <c r="H32" s="17">
+        <f>'z=0.25'!AS8</f>
+        <v>5.029012597681555E-2</v>
+      </c>
+      <c r="I32" s="19">
+        <f t="shared" si="24"/>
+        <v>5.1444967235340214E-2</v>
+      </c>
+      <c r="K32" s="12">
+        <v>0.8</v>
+      </c>
+      <c r="L32" s="17">
+        <f t="shared" si="25"/>
+        <v>6.4919233012855668E-2</v>
+      </c>
+      <c r="M32" s="17">
+        <f t="shared" si="26"/>
+        <v>4.0546390161069625E-2</v>
+      </c>
+      <c r="N32" s="17">
+        <f t="shared" si="27"/>
+        <v>1.5389660469542103E-2</v>
+      </c>
+      <c r="O32" s="17">
+        <f t="shared" si="28"/>
+        <v>1.5144935625690251E-2</v>
+      </c>
+      <c r="P32" s="17">
+        <f t="shared" si="29"/>
+        <v>6.8470236159044792E-3</v>
+      </c>
+      <c r="Q32" s="17">
+        <f t="shared" si="30"/>
+        <v>4.9991142807955021E-3</v>
+      </c>
+      <c r="R32" s="17">
+        <f t="shared" si="31"/>
+        <v>2.7945355298654674E-3</v>
+      </c>
+      <c r="S32" s="19">
+        <f t="shared" si="32"/>
+        <v>2.1520127527960443E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="19">
+        <f>AVERAGE(B29:B32)</f>
+        <v>7.989853474205208E-2</v>
+      </c>
+      <c r="C33" s="19">
+        <f t="shared" ref="C33:H33" si="33">AVERAGE(C29:C32)</f>
+        <v>3.0524406089654052E-2</v>
+      </c>
+      <c r="D33" s="19">
+        <f t="shared" si="33"/>
+        <v>2.7662862191371006E-2</v>
+      </c>
+      <c r="E33" s="19">
+        <f t="shared" si="33"/>
+        <v>2.0373091882383419E-2</v>
+      </c>
+      <c r="F33" s="19">
+        <f t="shared" si="33"/>
+        <v>2.2137970550705717E-2</v>
+      </c>
+      <c r="G33" s="19">
+        <f t="shared" si="33"/>
+        <v>2.1523196002280559E-2</v>
+      </c>
+      <c r="H33" s="19">
+        <f t="shared" si="33"/>
+        <v>2.1937493508500654E-2</v>
+      </c>
+      <c r="I33" s="19">
+        <f>AVERAGE(B29:H32)</f>
+        <v>3.2008222138135353E-2</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L33" s="19">
+        <f>AVERAGE(L29:L32)</f>
+        <v>6.3338259388491344E-2</v>
+      </c>
+      <c r="M33" s="19">
+        <f t="shared" ref="M33:R33" si="34">AVERAGE(M29:M32)</f>
+        <v>2.8767935025392148E-2</v>
+      </c>
+      <c r="N33" s="19">
+        <f t="shared" si="34"/>
+        <v>-3.5789176828371532E-3</v>
+      </c>
+      <c r="O33" s="19">
+        <f t="shared" si="34"/>
+        <v>-1.1113295544538937E-2</v>
+      </c>
+      <c r="P33" s="19">
+        <f t="shared" si="34"/>
+        <v>-1.4367581626993876E-2</v>
+      </c>
+      <c r="Q33" s="19">
+        <f t="shared" si="34"/>
+        <v>-1.5760412164710611E-2</v>
+      </c>
+      <c r="R33" s="19">
+        <f t="shared" si="34"/>
+        <v>-2.0633356159846697E-2</v>
+      </c>
+      <c r="S33" s="19">
+        <f>AVERAGE(L29:R32)</f>
+        <v>3.8075187478508877E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="6">
+        <v>1.705792</v>
+      </c>
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" t="s">
+        <v>7</v>
+      </c>
+      <c r="O35" s="6">
+        <v>1.705792</v>
+      </c>
+      <c r="P35" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="54">
+    <mergeCell ref="K26:S26"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="O27:O28"/>
+    <mergeCell ref="P27:P28"/>
+    <mergeCell ref="Q27:Q28"/>
+    <mergeCell ref="R27:R28"/>
+    <mergeCell ref="S27:S28"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="K14:S14"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="S2:S3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="Q15:Q16"/>
     <mergeCell ref="H15:H16"/>
@@ -15336,47 +19301,38 @@
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="K14:S14"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="O15:O16"/>
-    <mergeCell ref="P15:P16"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:H7">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>B4&lt;=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:H20">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>B17&lt;=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:R7">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>L4&lt;=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L17:R20">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>L17&lt;=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B29:H32">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>B29&lt;=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L29:R32">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>L29&lt;=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>